--- a/smog_weather_data.xlsx
+++ b/smog_weather_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>smog</t>
+          <t>precipprob</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sealevelpressure</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heating sezon</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>smog Złoty Róg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>smog Bulwarowa</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>smog Swoszowice</t>
         </is>
       </c>
     </row>
@@ -487,7 +517,23 @@
         <v>246.6</v>
       </c>
       <c r="G2" t="n">
-        <v>17.04</v>
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>17.4</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +558,25 @@
         <v>228.9</v>
       </c>
       <c r="G3" t="n">
-        <v>24.21666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +601,25 @@
         <v>239.8</v>
       </c>
       <c r="G4" t="n">
-        <v>13.68333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1009.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +644,25 @@
         <v>214.1</v>
       </c>
       <c r="G5" t="n">
-        <v>11.01666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1000.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
@@ -587,7 +687,25 @@
         <v>244.6</v>
       </c>
       <c r="G6" t="n">
-        <v>13.2</v>
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1000.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +730,25 @@
         <v>251.3</v>
       </c>
       <c r="G7" t="n">
-        <v>8.216666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1010.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
@@ -637,7 +773,25 @@
         <v>249.6</v>
       </c>
       <c r="G8" t="n">
-        <v>39.5</v>
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1020.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +816,25 @@
         <v>354.8</v>
       </c>
       <c r="G9" t="n">
-        <v>61.2</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1014.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +859,25 @@
         <v>38.5</v>
       </c>
       <c r="G10" t="n">
-        <v>58.68000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1005.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="11">
@@ -712,7 +902,25 @@
         <v>45.1</v>
       </c>
       <c r="G11" t="n">
-        <v>47.23999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +945,25 @@
         <v>38.4</v>
       </c>
       <c r="G12" t="n">
-        <v>37.4</v>
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1033.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30.1</v>
       </c>
     </row>
     <row r="13">
@@ -762,7 +988,25 @@
         <v>270.4</v>
       </c>
       <c r="G13" t="n">
-        <v>40.13333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1036.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="14">
@@ -787,7 +1031,25 @@
         <v>235.8</v>
       </c>
       <c r="G14" t="n">
-        <v>35.4</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1032.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="15">
@@ -812,7 +1074,25 @@
         <v>247.1</v>
       </c>
       <c r="G15" t="n">
-        <v>24.6</v>
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1025.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="16">
@@ -837,7 +1117,25 @@
         <v>252.9</v>
       </c>
       <c r="G16" t="n">
-        <v>36.83333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1027.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>33.2</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +1160,25 @@
         <v>233.5</v>
       </c>
       <c r="G17" t="n">
-        <v>57.03333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1022.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="18">
@@ -887,7 +1203,25 @@
         <v>242.8</v>
       </c>
       <c r="G18" t="n">
-        <v>13.46666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="19">
@@ -912,7 +1246,25 @@
         <v>260.7</v>
       </c>
       <c r="G19" t="n">
-        <v>21.58333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1031.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="20">
@@ -937,7 +1289,25 @@
         <v>231.3</v>
       </c>
       <c r="G20" t="n">
-        <v>43.96666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1026.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="21">
@@ -962,7 +1332,25 @@
         <v>245.1</v>
       </c>
       <c r="G21" t="n">
-        <v>14.08333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.6</v>
       </c>
     </row>
     <row r="22">
@@ -987,7 +1375,25 @@
         <v>259.3</v>
       </c>
       <c r="G22" t="n">
-        <v>14.56666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="23">
@@ -1012,7 +1418,25 @@
         <v>265.4</v>
       </c>
       <c r="G23" t="n">
-        <v>15.88333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1021.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1461,25 @@
         <v>285</v>
       </c>
       <c r="G24" t="n">
-        <v>29.13333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1030.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="25">
@@ -1062,7 +1504,25 @@
         <v>294.2</v>
       </c>
       <c r="G25" t="n">
-        <v>61.34999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1035.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="M25" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="26">
@@ -1087,7 +1547,25 @@
         <v>236.4</v>
       </c>
       <c r="G26" t="n">
-        <v>46.78333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1029.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>44.9</v>
       </c>
     </row>
     <row r="27">
@@ -1112,7 +1590,25 @@
         <v>233.5</v>
       </c>
       <c r="G27" t="n">
-        <v>29.1</v>
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1025.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="28">
@@ -1137,7 +1633,25 @@
         <v>238.5</v>
       </c>
       <c r="G28" t="n">
-        <v>23.01666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="29">
@@ -1162,7 +1676,25 @@
         <v>254.2</v>
       </c>
       <c r="G29" t="n">
-        <v>8.799999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="30">
@@ -1187,7 +1719,25 @@
         <v>233</v>
       </c>
       <c r="G30" t="n">
-        <v>14.51666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="31">
@@ -1212,7 +1762,25 @@
         <v>253.2</v>
       </c>
       <c r="G31" t="n">
-        <v>10.76666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="32">
@@ -1237,7 +1805,25 @@
         <v>250.6</v>
       </c>
       <c r="G32" t="n">
-        <v>36.1</v>
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>36</v>
+      </c>
+      <c r="L32" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="33">
@@ -1262,7 +1848,25 @@
         <v>229.5</v>
       </c>
       <c r="G33" t="n">
-        <v>37.76666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1007.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="34">
@@ -1287,7 +1891,25 @@
         <v>249</v>
       </c>
       <c r="G34" t="n">
-        <v>8.75</v>
+        <v>100</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1003</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="35">
@@ -1312,7 +1934,25 @@
         <v>245.2</v>
       </c>
       <c r="G35" t="n">
-        <v>21.06666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1018.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1337,7 +1977,25 @@
         <v>229.6</v>
       </c>
       <c r="G36" t="n">
-        <v>28.45</v>
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="37">
@@ -1362,7 +2020,25 @@
         <v>243.4</v>
       </c>
       <c r="G37" t="n">
-        <v>15.45</v>
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1014.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11.2</v>
       </c>
     </row>
     <row r="38">
@@ -1387,7 +2063,25 @@
         <v>214.9</v>
       </c>
       <c r="G38" t="n">
-        <v>8.633333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1009.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="39">
@@ -1412,7 +2106,25 @@
         <v>252.4</v>
       </c>
       <c r="G39" t="n">
-        <v>9.166666666666668</v>
+        <v>100</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1004.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="40">
@@ -1437,7 +2149,25 @@
         <v>245.7</v>
       </c>
       <c r="G40" t="n">
-        <v>18.96666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>15.9</v>
       </c>
     </row>
     <row r="41">
@@ -1462,7 +2192,25 @@
         <v>235.7</v>
       </c>
       <c r="G41" t="n">
-        <v>14.93333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1024.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="42">
@@ -1487,7 +2235,25 @@
         <v>223.2</v>
       </c>
       <c r="G42" t="n">
-        <v>30.03333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1020.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>24</v>
+      </c>
+      <c r="L42" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="43">
@@ -1512,7 +2278,25 @@
         <v>248.5</v>
       </c>
       <c r="G43" t="n">
-        <v>23.83333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="44">
@@ -1537,7 +2321,25 @@
         <v>269.4</v>
       </c>
       <c r="G44" t="n">
-        <v>30.06666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1032.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="45">
@@ -1562,7 +2364,25 @@
         <v>205</v>
       </c>
       <c r="G45" t="n">
-        <v>52.38000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1025.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="46">
@@ -1587,7 +2407,25 @@
         <v>96</v>
       </c>
       <c r="G46" t="n">
-        <v>56.77999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1015.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>56</v>
+      </c>
+      <c r="M46" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="47">
@@ -1612,7 +2450,25 @@
         <v>231.9</v>
       </c>
       <c r="G47" t="n">
-        <v>69.16666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>47.7</v>
       </c>
     </row>
     <row r="48">
@@ -1637,7 +2493,25 @@
         <v>216.7</v>
       </c>
       <c r="G48" t="n">
-        <v>51.68333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1009.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="49">
@@ -1662,7 +2536,25 @@
         <v>240.8</v>
       </c>
       <c r="G49" t="n">
-        <v>7.883333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H49" t="n">
+        <v>995.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="50">
@@ -1687,7 +2579,25 @@
         <v>243.6</v>
       </c>
       <c r="G50" t="n">
-        <v>15.6</v>
+        <v>100</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1007</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10.4</v>
       </c>
     </row>
     <row r="51">
@@ -1712,7 +2622,25 @@
         <v>242.5</v>
       </c>
       <c r="G51" t="n">
-        <v>13.06666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="52">
@@ -1737,7 +2665,25 @@
         <v>232</v>
       </c>
       <c r="G52" t="n">
-        <v>14.3</v>
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1011.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>13</v>
+      </c>
+      <c r="L52" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="53">
@@ -1762,7 +2708,25 @@
         <v>228.5</v>
       </c>
       <c r="G53" t="n">
-        <v>11.7</v>
+        <v>100</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1000.7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="54">
@@ -1787,7 +2751,25 @@
         <v>250.3</v>
       </c>
       <c r="G54" t="n">
-        <v>18.43333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1010.3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M54" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="55">
@@ -1812,7 +2794,25 @@
         <v>253.4</v>
       </c>
       <c r="G55" t="n">
-        <v>21.46666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L55" t="n">
+        <v>19</v>
+      </c>
+      <c r="M55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1837,7 +2837,25 @@
         <v>210</v>
       </c>
       <c r="G56" t="n">
-        <v>41.41666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1862,7 +2880,25 @@
         <v>245.9</v>
       </c>
       <c r="G57" t="n">
-        <v>31.06666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>30</v>
+      </c>
+      <c r="L57" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="58">
@@ -1887,7 +2923,25 @@
         <v>261.2</v>
       </c>
       <c r="G58" t="n">
-        <v>44.11666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1029.2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>39</v>
+      </c>
+      <c r="M58" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="59">
@@ -1912,7 +2966,25 @@
         <v>14.9</v>
       </c>
       <c r="G59" t="n">
-        <v>30.71666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1034.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>31.8</v>
       </c>
     </row>
     <row r="60">
@@ -1937,7 +3009,25 @@
         <v>43.8</v>
       </c>
       <c r="G60" t="n">
-        <v>26.15</v>
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1034.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="61">
@@ -1962,7 +3052,25 @@
         <v>36.5</v>
       </c>
       <c r="G61" t="n">
-        <v>51.63333333333335</v>
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1033.4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="62">
@@ -1987,7 +3095,25 @@
         <v>10.6</v>
       </c>
       <c r="G62" t="n">
-        <v>67.33333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -2012,7 +3138,25 @@
         <v>287.8</v>
       </c>
       <c r="G63" t="n">
-        <v>75.36</v>
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="L63" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="M63" t="n">
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2037,7 +3181,25 @@
         <v>318</v>
       </c>
       <c r="G64" t="n">
-        <v>35.63333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>31</v>
+      </c>
+      <c r="L64" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>38.3</v>
       </c>
     </row>
     <row r="65">
@@ -2062,7 +3224,25 @@
         <v>30.1</v>
       </c>
       <c r="G65" t="n">
-        <v>26.05</v>
+        <v>100</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1022.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>22</v>
+      </c>
+      <c r="L65" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="66">
@@ -2087,7 +3267,25 @@
         <v>28.1</v>
       </c>
       <c r="G66" t="n">
-        <v>22.7</v>
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1022.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L66" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M66" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="67">
@@ -2112,7 +3310,25 @@
         <v>307.8</v>
       </c>
       <c r="G67" t="n">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1021.1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>30</v>
+      </c>
+      <c r="L67" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>32.9</v>
       </c>
     </row>
     <row r="68">
@@ -2137,7 +3353,25 @@
         <v>285</v>
       </c>
       <c r="G68" t="n">
-        <v>33.46666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1023.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="M68" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="69">
@@ -2162,7 +3396,25 @@
         <v>282.1</v>
       </c>
       <c r="G69" t="n">
-        <v>56.41666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L69" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>55.1</v>
       </c>
     </row>
     <row r="70">
@@ -2187,7 +3439,25 @@
         <v>50.2</v>
       </c>
       <c r="G70" t="n">
-        <v>26.2</v>
+        <v>100</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1032.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L70" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="71">
@@ -2212,7 +3482,25 @@
         <v>54.2</v>
       </c>
       <c r="G71" t="n">
-        <v>37.95</v>
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1035</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L71" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="72">
@@ -2237,7 +3525,25 @@
         <v>41.7</v>
       </c>
       <c r="G72" t="n">
-        <v>53.86666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1031.4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="L72" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="M72" t="n">
+        <v>43.7</v>
       </c>
     </row>
     <row r="73">
@@ -2262,7 +3568,25 @@
         <v>47.9</v>
       </c>
       <c r="G73" t="n">
-        <v>63.25</v>
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1027.8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L73" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="74">
@@ -2287,7 +3611,25 @@
         <v>40.1</v>
       </c>
       <c r="G74" t="n">
-        <v>64.2</v>
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1030.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="75">
@@ -2312,7 +3654,25 @@
         <v>288</v>
       </c>
       <c r="G75" t="n">
-        <v>67.83333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1028.9</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="M75" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="76">
@@ -2337,7 +3697,25 @@
         <v>28.1</v>
       </c>
       <c r="G76" t="n">
-        <v>80.18333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="L76" t="n">
+        <v>69</v>
+      </c>
+      <c r="M76" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="77">
@@ -2362,7 +3740,25 @@
         <v>55.4</v>
       </c>
       <c r="G77" t="n">
-        <v>56.58333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1033</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="M77" t="n">
+        <v>50.2</v>
       </c>
     </row>
     <row r="78">
@@ -2387,7 +3783,25 @@
         <v>43.3</v>
       </c>
       <c r="G78" t="n">
-        <v>44.38333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1039.5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L78" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="79">
@@ -2412,7 +3826,25 @@
         <v>52.9</v>
       </c>
       <c r="G79" t="n">
-        <v>52.31666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1041.9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="L79" t="n">
+        <v>53</v>
+      </c>
+      <c r="M79" t="n">
+        <v>50.7</v>
       </c>
     </row>
     <row r="80">
@@ -2437,7 +3869,25 @@
         <v>50.2</v>
       </c>
       <c r="G80" t="n">
-        <v>46.36666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1042.5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81">
@@ -2462,7 +3912,25 @@
         <v>50.3</v>
       </c>
       <c r="G81" t="n">
-        <v>57.83333333333332</v>
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1040.1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L81" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="M81" t="n">
+        <v>43.2</v>
       </c>
     </row>
     <row r="82">
@@ -2487,7 +3955,25 @@
         <v>47.6</v>
       </c>
       <c r="G82" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1037.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="L82" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>54.3</v>
       </c>
     </row>
     <row r="83">
@@ -2512,7 +3998,25 @@
         <v>203.4</v>
       </c>
       <c r="G83" t="n">
-        <v>70.55</v>
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>66</v>
+      </c>
+      <c r="L83" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="M83" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="84">
@@ -2537,7 +4041,25 @@
         <v>13</v>
       </c>
       <c r="G84" t="n">
-        <v>57.21666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1027</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>60</v>
+      </c>
+      <c r="L84" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -2562,7 +4084,25 @@
         <v>226.5</v>
       </c>
       <c r="G85" t="n">
-        <v>65.48333333333332</v>
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1027</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="L85" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="M85" t="n">
+        <v>50.9</v>
       </c>
     </row>
     <row r="86">
@@ -2587,7 +4127,25 @@
         <v>265.7</v>
       </c>
       <c r="G86" t="n">
-        <v>61.71666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1025.7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="M86" t="n">
+        <v>48.5</v>
       </c>
     </row>
     <row r="87">
@@ -2612,7 +4170,25 @@
         <v>22.1</v>
       </c>
       <c r="G87" t="n">
-        <v>18.63333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1030.9</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M87" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="88">
@@ -2637,7 +4213,25 @@
         <v>240.7</v>
       </c>
       <c r="G88" t="n">
-        <v>38.00000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>41</v>
+      </c>
+      <c r="L88" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="89">
@@ -2662,7 +4256,25 @@
         <v>252.8</v>
       </c>
       <c r="G89" t="n">
-        <v>42.91666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1009</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L89" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="M89" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="90">
@@ -2687,7 +4299,25 @@
         <v>27.1</v>
       </c>
       <c r="G90" t="n">
-        <v>40.21666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1004.4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="L90" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -2712,7 +4342,25 @@
         <v>35.3</v>
       </c>
       <c r="G91" t="n">
-        <v>14.75</v>
+        <v>100</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1000.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="M91" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="92">
@@ -2737,7 +4385,25 @@
         <v>21.5</v>
       </c>
       <c r="G92" t="n">
-        <v>11.7</v>
+        <v>100</v>
+      </c>
+      <c r="H92" t="n">
+        <v>998.3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L92" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M92" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -2762,7 +4428,25 @@
         <v>325.5</v>
       </c>
       <c r="G93" t="n">
-        <v>17.91666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1004</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="94">
@@ -2787,7 +4471,25 @@
         <v>298.1</v>
       </c>
       <c r="G94" t="n">
-        <v>20.9</v>
+        <v>100</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="95">
@@ -2812,7 +4514,25 @@
         <v>218.6</v>
       </c>
       <c r="G95" t="n">
-        <v>21.06666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="M95" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="96">
@@ -2837,7 +4557,25 @@
         <v>228.9</v>
       </c>
       <c r="G96" t="n">
-        <v>13.7</v>
+        <v>100</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1003.7</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2862,7 +4600,25 @@
         <v>221.6</v>
       </c>
       <c r="G97" t="n">
-        <v>17.55</v>
+        <v>100</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2887,7 +4643,25 @@
         <v>220</v>
       </c>
       <c r="G98" t="n">
-        <v>18.8</v>
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="M98" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2912,7 +4686,25 @@
         <v>238.9</v>
       </c>
       <c r="G99" t="n">
-        <v>11.76666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H99" t="n">
+        <v>996.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L99" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="M99" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2937,7 +4729,25 @@
         <v>273</v>
       </c>
       <c r="G100" t="n">
-        <v>20.2</v>
+        <v>100</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1001.2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L100" t="n">
+        <v>18</v>
+      </c>
+      <c r="M100" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="101">
@@ -2962,7 +4772,25 @@
         <v>255.5</v>
       </c>
       <c r="G101" t="n">
-        <v>20.53333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1014.9</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L101" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="102">
@@ -2987,7 +4815,25 @@
         <v>265.3</v>
       </c>
       <c r="G102" t="n">
-        <v>24.76666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L102" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M102" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="103">
@@ -3012,7 +4858,25 @@
         <v>41.8</v>
       </c>
       <c r="G103" t="n">
-        <v>38.41666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1021.1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="L103" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="104">
@@ -3037,7 +4901,25 @@
         <v>41.1</v>
       </c>
       <c r="G104" t="n">
-        <v>49.38333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1022.3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L104" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="M104" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="105">
@@ -3062,7 +4944,25 @@
         <v>19.8</v>
       </c>
       <c r="G105" t="n">
-        <v>49.26666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1019.7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="L105" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="M105" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="106">
@@ -3087,7 +4987,25 @@
         <v>254</v>
       </c>
       <c r="G106" t="n">
-        <v>30.55</v>
+        <v>100</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1019.2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M106" t="n">
+        <v>28.2</v>
       </c>
     </row>
     <row r="107">
@@ -3112,7 +5030,25 @@
         <v>341.7</v>
       </c>
       <c r="G107" t="n">
-        <v>10.58333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1025.1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -3137,7 +5073,25 @@
         <v>8.1</v>
       </c>
       <c r="G108" t="n">
-        <v>13.22</v>
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1026.6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L108" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>12.9</v>
       </c>
     </row>
     <row r="109">
@@ -3162,7 +5116,25 @@
         <v>342</v>
       </c>
       <c r="G109" t="n">
-        <v>19.68</v>
+        <v>100</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L109" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="110">
@@ -3187,7 +5159,25 @@
         <v>38.8</v>
       </c>
       <c r="G110" t="n">
-        <v>22.28</v>
+        <v>100</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1012.3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="L110" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M110" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="111">
@@ -3212,7 +5202,25 @@
         <v>246.1</v>
       </c>
       <c r="G111" t="n">
-        <v>38.78333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1013.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="L111" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="M111" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="112">
@@ -3237,7 +5245,25 @@
         <v>241.3</v>
       </c>
       <c r="G112" t="n">
-        <v>39.15</v>
+        <v>100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L112" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -3262,7 +5288,25 @@
         <v>47.1</v>
       </c>
       <c r="G113" t="n">
-        <v>32.93333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1010.3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="L113" t="n">
+        <v>30</v>
+      </c>
+      <c r="M113" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="114">
@@ -3287,7 +5331,25 @@
         <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>24.25</v>
+        <v>100</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1008.6</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="M114" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="115">
@@ -3312,7 +5374,25 @@
         <v>63.3</v>
       </c>
       <c r="G115" t="n">
-        <v>29.18333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1004.9</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L115" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>24.2</v>
       </c>
     </row>
     <row r="116">
@@ -3337,7 +5417,25 @@
         <v>259.9</v>
       </c>
       <c r="G116" t="n">
-        <v>17.8</v>
+        <v>100</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M116" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="117">
@@ -3362,7 +5460,25 @@
         <v>281.4</v>
       </c>
       <c r="G117" t="n">
-        <v>29.35</v>
+        <v>100</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="M117" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="118">
@@ -3387,7 +5503,25 @@
         <v>89.3</v>
       </c>
       <c r="G118" t="n">
-        <v>32.88333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>33</v>
+      </c>
+      <c r="L118" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="119">
@@ -3412,7 +5546,25 @@
         <v>352.2</v>
       </c>
       <c r="G119" t="n">
-        <v>27.85</v>
+        <v>100</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1024.8</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>26</v>
+      </c>
+      <c r="L119" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="M119" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="120">
@@ -3437,7 +5589,25 @@
         <v>282.3</v>
       </c>
       <c r="G120" t="n">
-        <v>36.25</v>
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="M120" t="n">
+        <v>32.5</v>
       </c>
     </row>
     <row r="121">
@@ -3462,7 +5632,25 @@
         <v>42.5</v>
       </c>
       <c r="G121" t="n">
-        <v>33.2</v>
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1023.5</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="122">
@@ -3487,7 +5675,25 @@
         <v>27.7</v>
       </c>
       <c r="G122" t="n">
-        <v>33.15000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L122" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="123">
@@ -3512,7 +5718,25 @@
         <v>33</v>
       </c>
       <c r="G123" t="n">
-        <v>36.85</v>
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="M123" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="124">
@@ -3537,7 +5761,25 @@
         <v>299.5</v>
       </c>
       <c r="G124" t="n">
-        <v>32.43333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1015.1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="L124" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="M124" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="125">
@@ -3562,7 +5804,25 @@
         <v>45.5</v>
       </c>
       <c r="G125" t="n">
-        <v>27.63333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1017.6</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L125" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M125" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="126">
@@ -3587,7 +5847,25 @@
         <v>22.1</v>
       </c>
       <c r="G126" t="n">
-        <v>26.41666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>25</v>
+      </c>
+      <c r="L126" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -3612,7 +5890,25 @@
         <v>253.7</v>
       </c>
       <c r="G127" t="n">
-        <v>30.8</v>
+        <v>100</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1022.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L127" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="128">
@@ -3637,7 +5933,25 @@
         <v>266.2</v>
       </c>
       <c r="G128" t="n">
-        <v>30.11666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1022.4</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M128" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="129">
@@ -3662,7 +5976,25 @@
         <v>197.4</v>
       </c>
       <c r="G129" t="n">
-        <v>25.75</v>
+        <v>100</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1022.6</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="M129" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="130">
@@ -3687,7 +6019,25 @@
         <v>35.4</v>
       </c>
       <c r="G130" t="n">
-        <v>20.8</v>
+        <v>100</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1025.7</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L130" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M130" t="n">
+        <v>17.4</v>
       </c>
     </row>
     <row r="131">
@@ -3712,7 +6062,25 @@
         <v>39.3</v>
       </c>
       <c r="G131" t="n">
-        <v>24.58333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1022.9</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L131" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="132">
@@ -3737,7 +6105,25 @@
         <v>236</v>
       </c>
       <c r="G132" t="n">
-        <v>29.53333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L132" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="133">
@@ -3762,7 +6148,25 @@
         <v>257.6</v>
       </c>
       <c r="G133" t="n">
-        <v>33.1</v>
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1014.1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="M133" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="134">
@@ -3787,7 +6191,25 @@
         <v>253.8</v>
       </c>
       <c r="G134" t="n">
-        <v>28.9</v>
+        <v>100</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>30</v>
+      </c>
+      <c r="M134" t="n">
+        <v>25.1</v>
       </c>
     </row>
     <row r="135">
@@ -3812,7 +6234,25 @@
         <v>264.5</v>
       </c>
       <c r="G135" t="n">
-        <v>23.24</v>
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1018.7</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L135" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M135" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="136">
@@ -3837,7 +6277,25 @@
         <v>275.3</v>
       </c>
       <c r="G136" t="n">
-        <v>21.62</v>
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1019.9</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="M136" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="137">
@@ -3862,7 +6320,25 @@
         <v>200.9</v>
       </c>
       <c r="G137" t="n">
-        <v>23.04</v>
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1019.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="M137" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="138">
@@ -3887,7 +6363,25 @@
         <v>27.4</v>
       </c>
       <c r="G138" t="n">
-        <v>22.06</v>
+        <v>100</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>22</v>
+      </c>
+      <c r="L138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="M138" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="139">
@@ -3912,7 +6406,25 @@
         <v>43.5</v>
       </c>
       <c r="G139" t="n">
-        <v>19.76</v>
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1027.3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L139" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M139" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -3937,7 +6449,25 @@
         <v>238.4</v>
       </c>
       <c r="G140" t="n">
-        <v>26.48</v>
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1026.1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="141">
@@ -3962,7 +6492,25 @@
         <v>235.1</v>
       </c>
       <c r="G141" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>20.2</v>
       </c>
     </row>
     <row r="142">
@@ -3987,7 +6535,25 @@
         <v>269.9</v>
       </c>
       <c r="G142" t="n">
-        <v>19.6</v>
+        <v>100</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1013.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M142" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="143">
@@ -4012,7 +6578,25 @@
         <v>277.6</v>
       </c>
       <c r="G143" t="n">
-        <v>9.239999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1014.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L143" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M143" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -4037,7 +6621,25 @@
         <v>73.2</v>
       </c>
       <c r="G144" t="n">
-        <v>12.8</v>
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1013</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M144" t="n">
+        <v>12.9</v>
       </c>
     </row>
     <row r="145">
@@ -4062,7 +6664,25 @@
         <v>34.2</v>
       </c>
       <c r="G145" t="n">
-        <v>24.68</v>
+        <v>100</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1009.9</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L145" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="146">
@@ -4087,7 +6707,25 @@
         <v>261.5</v>
       </c>
       <c r="G146" t="n">
-        <v>20.2</v>
+        <v>100</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1014.3</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="147">
@@ -4112,7 +6750,25 @@
         <v>242.1</v>
       </c>
       <c r="G147" t="n">
-        <v>12.66</v>
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="L147" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="148">
@@ -4137,7 +6793,25 @@
         <v>240.5</v>
       </c>
       <c r="G148" t="n">
-        <v>11.94</v>
+        <v>100</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L148" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="149">
@@ -4162,7 +6836,25 @@
         <v>244.7</v>
       </c>
       <c r="G149" t="n">
-        <v>11.7</v>
+        <v>100</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1013.7</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="150">
@@ -4187,7 +6879,25 @@
         <v>279.4</v>
       </c>
       <c r="G150" t="n">
-        <v>11.92</v>
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1012.7</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="151">
@@ -4212,7 +6922,25 @@
         <v>252.7</v>
       </c>
       <c r="G151" t="n">
-        <v>15.56</v>
+        <v>100</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1011.4</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>17</v>
+      </c>
+      <c r="L151" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="152">
@@ -4237,7 +6965,25 @@
         <v>63.2</v>
       </c>
       <c r="G152" t="n">
-        <v>20.4</v>
+        <v>100</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1015.7</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L152" t="n">
+        <v>24</v>
+      </c>
+      <c r="M152" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="153">
@@ -4262,7 +7008,25 @@
         <v>239</v>
       </c>
       <c r="G153" t="n">
-        <v>20.72</v>
+        <v>100</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="L153" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>18.1</v>
       </c>
     </row>
     <row r="154">
@@ -4287,7 +7051,25 @@
         <v>279.2</v>
       </c>
       <c r="G154" t="n">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1018.9</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="L154" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M154" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="155">
@@ -4312,7 +7094,25 @@
         <v>52.6</v>
       </c>
       <c r="G155" t="n">
-        <v>18.04</v>
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1021.9</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L155" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="M155" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="156">
@@ -4337,7 +7137,25 @@
         <v>38.5</v>
       </c>
       <c r="G156" t="n">
-        <v>22.25</v>
+        <v>100</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="M156" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="157">
@@ -4362,7 +7180,25 @@
         <v>44.4</v>
       </c>
       <c r="G157" t="n">
-        <v>18.875</v>
+        <v>100</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1019.3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L157" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="158">
@@ -4387,7 +7223,25 @@
         <v>24.2</v>
       </c>
       <c r="G158" t="n">
-        <v>23.35</v>
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1016.6</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L158" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="159">
@@ -4412,7 +7266,25 @@
         <v>241.5</v>
       </c>
       <c r="G159" t="n">
-        <v>21.625</v>
+        <v>100</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1013.3</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L159" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M159" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="160">
@@ -4437,7 +7309,25 @@
         <v>22.5</v>
       </c>
       <c r="G160" t="n">
-        <v>16.525</v>
+        <v>100</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1011.1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L160" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="M160" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -4462,7 +7352,25 @@
         <v>77.40000000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>19.22</v>
+        <v>100</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1009.1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="M161" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -4487,7 +7395,25 @@
         <v>280.2</v>
       </c>
       <c r="G162" t="n">
-        <v>18.56</v>
+        <v>100</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="L162" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M162" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="163">
@@ -4512,7 +7438,25 @@
         <v>338.5</v>
       </c>
       <c r="G163" t="n">
-        <v>15.24</v>
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L163" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="164">
@@ -4537,7 +7481,25 @@
         <v>351.2</v>
       </c>
       <c r="G164" t="n">
-        <v>15.58</v>
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>12.9</v>
       </c>
     </row>
     <row r="165">
@@ -4562,7 +7524,25 @@
         <v>285.7</v>
       </c>
       <c r="G165" t="n">
-        <v>17.02</v>
+        <v>100</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1015.9</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="L165" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="166">
@@ -4587,7 +7567,25 @@
         <v>263.7</v>
       </c>
       <c r="G166" t="n">
-        <v>13.98</v>
+        <v>100</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M166" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -4612,7 +7610,25 @@
         <v>332.5</v>
       </c>
       <c r="G167" t="n">
-        <v>20.04</v>
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L167" t="n">
+        <v>25</v>
+      </c>
+      <c r="M167" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="168">
@@ -4637,7 +7653,25 @@
         <v>257.9</v>
       </c>
       <c r="G168" t="n">
-        <v>17.74</v>
+        <v>100</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="L168" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="169">
@@ -4662,7 +7696,25 @@
         <v>262.7</v>
       </c>
       <c r="G169" t="n">
-        <v>17.62</v>
+        <v>100</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1020.9</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M169" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="170">
@@ -4687,7 +7739,25 @@
         <v>221.8</v>
       </c>
       <c r="G170" t="n">
-        <v>17.32</v>
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="L170" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="M170" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="171">
@@ -4712,7 +7782,25 @@
         <v>217.2</v>
       </c>
       <c r="G171" t="n">
-        <v>21.16</v>
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1014.2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>20</v>
+      </c>
+      <c r="L171" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M171" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="172">
@@ -4737,7 +7825,25 @@
         <v>252.5</v>
       </c>
       <c r="G172" t="n">
-        <v>20.76</v>
+        <v>100</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1009.3</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L172" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="M172" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="173">
@@ -4762,8 +7868,24 @@
         <v>262.5</v>
       </c>
       <c r="G173" t="n">
-        <v>12.3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1012.3</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L173" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4787,7 +7909,25 @@
         <v>284.7</v>
       </c>
       <c r="G174" t="n">
-        <v>16.24</v>
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L174" t="n">
+        <v>18</v>
+      </c>
+      <c r="M174" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -4812,7 +7952,25 @@
         <v>14.3</v>
       </c>
       <c r="G175" t="n">
-        <v>16.42</v>
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="176">
@@ -4837,7 +7995,25 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>17.92</v>
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1014.4</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L176" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="M176" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="177">
@@ -4862,7 +8038,25 @@
         <v>45.1</v>
       </c>
       <c r="G177" t="n">
-        <v>20.88</v>
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1012.4</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L177" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="178">
@@ -4887,7 +8081,25 @@
         <v>44.5</v>
       </c>
       <c r="G178" t="n">
-        <v>21.68</v>
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1015.7</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L178" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="M178" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="179">
@@ -4912,7 +8124,25 @@
         <v>47.7</v>
       </c>
       <c r="G179" t="n">
-        <v>24.08</v>
+        <v>100</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1016.9</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L179" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="M179" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="180">
@@ -4937,7 +8167,25 @@
         <v>261.5</v>
       </c>
       <c r="G180" t="n">
-        <v>26.44</v>
+        <v>100</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1018.1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>26</v>
+      </c>
+      <c r="L180" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="M180" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="181">
@@ -4962,7 +8210,25 @@
         <v>42.1</v>
       </c>
       <c r="G181" t="n">
-        <v>28.5</v>
+        <v>100</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L181" t="n">
+        <v>33</v>
+      </c>
+      <c r="M181" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="182">
@@ -4987,7 +8253,25 @@
         <v>38.8</v>
       </c>
       <c r="G182" t="n">
-        <v>37.46</v>
+        <v>100</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1012.8</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>30.7</v>
       </c>
     </row>
     <row r="183">
@@ -5012,7 +8296,25 @@
         <v>284.9</v>
       </c>
       <c r="G183" t="n">
-        <v>34.68</v>
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="M183" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="184">
@@ -5037,7 +8339,25 @@
         <v>260.7</v>
       </c>
       <c r="G184" t="n">
-        <v>15.38</v>
+        <v>100</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1022.6</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L184" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M184" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="185">
@@ -5062,7 +8382,25 @@
         <v>34.3</v>
       </c>
       <c r="G185" t="n">
-        <v>13.825</v>
+        <v>100</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L185" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M185" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="186">
@@ -5087,7 +8425,25 @@
         <v>281.1</v>
       </c>
       <c r="G186" t="n">
-        <v>21.18</v>
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1016.8</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L186" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="187">
@@ -5112,7 +8468,25 @@
         <v>348.1</v>
       </c>
       <c r="G187" t="n">
-        <v>18.04</v>
+        <v>100</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M187" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="188">
@@ -5137,7 +8511,25 @@
         <v>292.1</v>
       </c>
       <c r="G188" t="n">
-        <v>15.66</v>
+        <v>100</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L188" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M188" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="189">
@@ -5162,7 +8554,25 @@
         <v>253.2</v>
       </c>
       <c r="G189" t="n">
-        <v>19.2</v>
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L189" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M189" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="190">
@@ -5187,7 +8597,25 @@
         <v>238.4</v>
       </c>
       <c r="G190" t="n">
-        <v>15.98</v>
+        <v>100</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M190" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="191">
@@ -5212,7 +8640,25 @@
         <v>252</v>
       </c>
       <c r="G191" t="n">
-        <v>15.2</v>
+        <v>100</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L191" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M191" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="192">
@@ -5237,7 +8683,25 @@
         <v>282.3</v>
       </c>
       <c r="G192" t="n">
-        <v>11.66</v>
+        <v>100</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L192" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M192" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="193">
@@ -5262,7 +8726,25 @@
         <v>256</v>
       </c>
       <c r="G193" t="n">
-        <v>11.56</v>
+        <v>100</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L193" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="M193" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="194">
@@ -5287,7 +8769,25 @@
         <v>247.8</v>
       </c>
       <c r="G194" t="n">
-        <v>13.08</v>
+        <v>100</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1019.2</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L194" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="M194" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="195">
@@ -5312,7 +8812,25 @@
         <v>256.9</v>
       </c>
       <c r="G195" t="n">
-        <v>15.48</v>
+        <v>100</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L195" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="196">
@@ -5337,7 +8855,25 @@
         <v>251.6</v>
       </c>
       <c r="G196" t="n">
-        <v>22.18</v>
+        <v>100</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1015</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M196" t="n">
+        <v>18.1</v>
       </c>
     </row>
     <row r="197">
@@ -5362,7 +8898,25 @@
         <v>278.2</v>
       </c>
       <c r="G197" t="n">
-        <v>14.54</v>
+        <v>100</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1016.8</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L197" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="198">
@@ -5387,7 +8941,25 @@
         <v>253.8</v>
       </c>
       <c r="G198" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1019.2</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M198" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="199">
@@ -5412,7 +8984,25 @@
         <v>257.6</v>
       </c>
       <c r="G199" t="n">
-        <v>12.58</v>
+        <v>100</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1024.8</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="M199" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -5437,7 +9027,25 @@
         <v>256.9</v>
       </c>
       <c r="G200" t="n">
-        <v>18.44</v>
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1025.3</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="201">
@@ -5462,7 +9070,25 @@
         <v>227.5</v>
       </c>
       <c r="G201" t="n">
-        <v>23.62</v>
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1022</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L201" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="M201" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="202">
@@ -5487,7 +9113,25 @@
         <v>18.5</v>
       </c>
       <c r="G202" t="n">
-        <v>28.5</v>
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1020.8</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L202" t="n">
+        <v>34</v>
+      </c>
+      <c r="M202" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="203">
@@ -5512,7 +9156,25 @@
         <v>52.4</v>
       </c>
       <c r="G203" t="n">
-        <v>23.91999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1019.1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L203" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M203" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="204">
@@ -5537,7 +9199,25 @@
         <v>250.7</v>
       </c>
       <c r="G204" t="n">
-        <v>31.78</v>
+        <v>100</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1017.1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="L204" t="n">
+        <v>36</v>
+      </c>
+      <c r="M204" t="n">
+        <v>27.6</v>
       </c>
     </row>
     <row r="205">
@@ -5562,7 +9242,25 @@
         <v>269.7</v>
       </c>
       <c r="G205" t="n">
-        <v>26.52</v>
+        <v>100</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L205" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M205" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="206">
@@ -5587,7 +9285,25 @@
         <v>279.3</v>
       </c>
       <c r="G206" t="n">
-        <v>16.84</v>
+        <v>100</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L206" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="207">
@@ -5612,7 +9328,25 @@
         <v>46.6</v>
       </c>
       <c r="G207" t="n">
-        <v>17.64</v>
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>18</v>
+      </c>
+      <c r="L207" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="M207" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="208">
@@ -5637,7 +9371,25 @@
         <v>256.5</v>
       </c>
       <c r="G208" t="n">
-        <v>21.6</v>
+        <v>100</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1011.7</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>21</v>
+      </c>
+      <c r="L208" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M208" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="209">
@@ -5662,7 +9414,25 @@
         <v>230</v>
       </c>
       <c r="G209" t="n">
-        <v>19.08</v>
+        <v>100</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>20</v>
+      </c>
+      <c r="L209" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="210">
@@ -5687,7 +9457,25 @@
         <v>55.5</v>
       </c>
       <c r="G210" t="n">
-        <v>17.58</v>
+        <v>100</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1018.7</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L210" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="211">
@@ -5712,7 +9500,25 @@
         <v>49.7</v>
       </c>
       <c r="G211" t="n">
-        <v>18.2</v>
+        <v>100</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1018.1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M211" t="n">
+        <v>15.6</v>
       </c>
     </row>
     <row r="212">
@@ -5737,7 +9543,25 @@
         <v>307</v>
       </c>
       <c r="G212" t="n">
-        <v>13.8</v>
+        <v>100</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1013</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L212" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="213">
@@ -5762,7 +9586,25 @@
         <v>248.8</v>
       </c>
       <c r="G213" t="n">
-        <v>8.080000000000002</v>
+        <v>100</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1011.3</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M213" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="214">
@@ -5787,7 +9629,25 @@
         <v>242.4</v>
       </c>
       <c r="G214" t="n">
-        <v>17.84</v>
+        <v>100</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1014.3</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M214" t="n">
+        <v>17.4</v>
       </c>
     </row>
     <row r="215">
@@ -5812,7 +9672,25 @@
         <v>268.3</v>
       </c>
       <c r="G215" t="n">
-        <v>22.175</v>
+        <v>100</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="M215" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="216">
@@ -5837,7 +9715,25 @@
         <v>173.4</v>
       </c>
       <c r="G216" t="n">
-        <v>23.775</v>
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1019.1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="L216" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="217">
@@ -5862,7 +9758,25 @@
         <v>64.7</v>
       </c>
       <c r="G217" t="n">
-        <v>26.7</v>
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L217" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M217" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="218">
@@ -5887,7 +9801,25 @@
         <v>47.5</v>
       </c>
       <c r="G218" t="n">
-        <v>32.42</v>
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1015</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L218" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>26.6</v>
       </c>
     </row>
     <row r="219">
@@ -5912,7 +9844,25 @@
         <v>290.7</v>
       </c>
       <c r="G219" t="n">
-        <v>20.22</v>
+        <v>100</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L219" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="M219" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="220">
@@ -5937,7 +9887,25 @@
         <v>61.5</v>
       </c>
       <c r="G220" t="n">
-        <v>15.06</v>
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L220" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="M220" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="221">
@@ -5962,7 +9930,25 @@
         <v>52.8</v>
       </c>
       <c r="G221" t="n">
-        <v>18.18</v>
+        <v>100</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>20</v>
+      </c>
+      <c r="M221" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="222">
@@ -5987,7 +9973,25 @@
         <v>45.3</v>
       </c>
       <c r="G222" t="n">
-        <v>20.78</v>
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1024.8</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>20</v>
+      </c>
+      <c r="L222" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M222" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="223">
@@ -6012,7 +10016,25 @@
         <v>19</v>
       </c>
       <c r="G223" t="n">
-        <v>19.64</v>
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1025.5</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L223" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M223" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="224">
@@ -6037,7 +10059,25 @@
         <v>43</v>
       </c>
       <c r="G224" t="n">
-        <v>17.62</v>
+        <v>100</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L224" t="n">
+        <v>20</v>
+      </c>
+      <c r="M224" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="225">
@@ -6062,7 +10102,25 @@
         <v>59.8</v>
       </c>
       <c r="G225" t="n">
-        <v>17.88</v>
+        <v>100</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1020.9</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>18</v>
+      </c>
+      <c r="L225" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="M225" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="226">
@@ -6087,7 +10145,25 @@
         <v>38.6</v>
       </c>
       <c r="G226" t="n">
-        <v>17.74</v>
+        <v>100</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="M226" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="227">
@@ -6112,7 +10188,25 @@
         <v>42.3</v>
       </c>
       <c r="G227" t="n">
-        <v>16.42</v>
+        <v>100</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1010.8</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L227" t="n">
+        <v>17</v>
+      </c>
+      <c r="M227" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="228">
@@ -6137,7 +10231,25 @@
         <v>46.7</v>
       </c>
       <c r="G228" t="n">
-        <v>23.82</v>
+        <v>100</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1007.9</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M228" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="229">
@@ -6162,7 +10274,25 @@
         <v>265.7</v>
       </c>
       <c r="G229" t="n">
-        <v>27.98</v>
+        <v>100</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1009</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L229" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>22.3</v>
       </c>
     </row>
     <row r="230">
@@ -6187,7 +10317,25 @@
         <v>293.6</v>
       </c>
       <c r="G230" t="n">
-        <v>35.5</v>
+        <v>100</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="L230" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="M230" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="231">
@@ -6212,7 +10360,25 @@
         <v>62.9</v>
       </c>
       <c r="G231" t="n">
-        <v>28.88</v>
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="M231" t="n">
+        <v>25.1</v>
       </c>
     </row>
     <row r="232">
@@ -6237,7 +10403,25 @@
         <v>57.9</v>
       </c>
       <c r="G232" t="n">
-        <v>32.44</v>
+        <v>100</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>34</v>
+      </c>
+      <c r="L232" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="M232" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="233">
@@ -6262,7 +10446,25 @@
         <v>219</v>
       </c>
       <c r="G233" t="n">
-        <v>25.9</v>
+        <v>100</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1012</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="M233" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="234">
@@ -6287,7 +10489,25 @@
         <v>235.4</v>
       </c>
       <c r="G234" t="n">
-        <v>19.68</v>
+        <v>100</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1010.9</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L234" t="n">
+        <v>22</v>
+      </c>
+      <c r="M234" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="235">
@@ -6312,7 +10532,25 @@
         <v>212.8</v>
       </c>
       <c r="G235" t="n">
-        <v>20.12</v>
+        <v>100</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1011.9</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M235" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="236">
@@ -6337,7 +10575,25 @@
         <v>232.5</v>
       </c>
       <c r="G236" t="n">
-        <v>19.6</v>
+        <v>100</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1014.4</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L236" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M236" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="237">
@@ -6362,7 +10618,25 @@
         <v>241.4</v>
       </c>
       <c r="G237" t="n">
-        <v>37.36</v>
+        <v>100</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="M237" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="238">
@@ -6387,7 +10661,25 @@
         <v>49.9</v>
       </c>
       <c r="G238" t="n">
-        <v>51.68000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="L238" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="239">
@@ -6412,7 +10704,25 @@
         <v>59.9</v>
       </c>
       <c r="G239" t="n">
-        <v>34.77999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1013.8</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="240">
@@ -6437,7 +10747,25 @@
         <v>336.3</v>
       </c>
       <c r="G240" t="n">
-        <v>31.7</v>
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1012.1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L240" t="n">
+        <v>36</v>
+      </c>
+      <c r="M240" t="n">
+        <v>30.7</v>
       </c>
     </row>
     <row r="241">
@@ -6462,7 +10790,25 @@
         <v>226.5</v>
       </c>
       <c r="G241" t="n">
-        <v>19.42000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1013.3</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L241" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M241" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="242">
@@ -6487,7 +10833,25 @@
         <v>255.1</v>
       </c>
       <c r="G242" t="n">
-        <v>20.06</v>
+        <v>100</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L242" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="M242" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="243">
@@ -6512,7 +10876,25 @@
         <v>292.9</v>
       </c>
       <c r="G243" t="n">
-        <v>19.92</v>
+        <v>100</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="M243" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="244">
@@ -6537,7 +10919,25 @@
         <v>36.1</v>
       </c>
       <c r="G244" t="n">
-        <v>16.8</v>
+        <v>100</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="245">
@@ -6562,7 +10962,25 @@
         <v>20.8</v>
       </c>
       <c r="G245" t="n">
-        <v>14.02</v>
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1020.2</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L245" t="n">
+        <v>16</v>
+      </c>
+      <c r="M245" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="246">
@@ -6587,7 +11005,25 @@
         <v>52</v>
       </c>
       <c r="G246" t="n">
-        <v>15.82</v>
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L246" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M246" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="247">
@@ -6612,7 +11048,25 @@
         <v>59.3</v>
       </c>
       <c r="G247" t="n">
-        <v>15.12</v>
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1019.7</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L247" t="n">
+        <v>18</v>
+      </c>
+      <c r="M247" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="248">
@@ -6637,7 +11091,25 @@
         <v>41.8</v>
       </c>
       <c r="G248" t="n">
-        <v>16.46</v>
+        <v>100</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1022.4</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>17</v>
+      </c>
+      <c r="L248" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="M248" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="249">
@@ -6662,7 +11134,25 @@
         <v>52.9</v>
       </c>
       <c r="G249" t="n">
-        <v>21.9</v>
+        <v>100</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1025.6</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L249" t="n">
+        <v>26</v>
+      </c>
+      <c r="M249" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="250">
@@ -6687,7 +11177,25 @@
         <v>52.3</v>
       </c>
       <c r="G250" t="n">
-        <v>20.68</v>
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1022.7</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L250" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="M250" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="251">
@@ -6712,7 +11220,25 @@
         <v>41</v>
       </c>
       <c r="G251" t="n">
-        <v>26.32</v>
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>26</v>
+      </c>
+      <c r="L251" t="n">
+        <v>36</v>
+      </c>
+      <c r="M251" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="252">
@@ -6737,7 +11263,25 @@
         <v>54.7</v>
       </c>
       <c r="G252" t="n">
-        <v>34.78333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1013.1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L252" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="M252" t="n">
+        <v>28.2</v>
       </c>
     </row>
     <row r="253">
@@ -6762,7 +11306,25 @@
         <v>257.6</v>
       </c>
       <c r="G253" t="n">
-        <v>19.53333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1014.3</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L253" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="254">
@@ -6787,7 +11349,25 @@
         <v>341.7</v>
       </c>
       <c r="G254" t="n">
-        <v>18.36666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1012.9</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L254" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M254" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="255">
@@ -6812,7 +11392,25 @@
         <v>260.4</v>
       </c>
       <c r="G255" t="n">
-        <v>13.6</v>
+        <v>100</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L255" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="M255" t="n">
+        <v>10.8</v>
       </c>
     </row>
     <row r="256">
@@ -6837,7 +11435,25 @@
         <v>274.4</v>
       </c>
       <c r="G256" t="n">
-        <v>18.28333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L256" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M256" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="257">
@@ -6862,7 +11478,25 @@
         <v>224.7</v>
       </c>
       <c r="G257" t="n">
-        <v>19.56666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1012.9</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L257" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M257" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="258">
@@ -6887,7 +11521,25 @@
         <v>222.5</v>
       </c>
       <c r="G258" t="n">
-        <v>19.88333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1006.7</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="L258" t="n">
+        <v>21</v>
+      </c>
+      <c r="M258" t="n">
+        <v>14.1</v>
       </c>
     </row>
     <row r="259">
@@ -6912,7 +11564,25 @@
         <v>251.4</v>
       </c>
       <c r="G259" t="n">
-        <v>16.58333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1002.7</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L259" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M259" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="260">
@@ -6937,7 +11607,25 @@
         <v>248.9</v>
       </c>
       <c r="G260" t="n">
-        <v>19.7</v>
+        <v>100</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1006.4</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L260" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="M260" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="261">
@@ -6962,7 +11650,25 @@
         <v>240.1</v>
       </c>
       <c r="G261" t="n">
-        <v>16.66666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1006.2</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L261" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M261" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="262">
@@ -6987,7 +11693,25 @@
         <v>251.5</v>
       </c>
       <c r="G262" t="n">
-        <v>9.883333333333335</v>
+        <v>100</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L262" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M262" t="n">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="263">
@@ -7012,7 +11736,25 @@
         <v>237.6</v>
       </c>
       <c r="G263" t="n">
-        <v>11.21666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>10</v>
+      </c>
+      <c r="L263" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M263" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="264">
@@ -7037,7 +11779,25 @@
         <v>256.9</v>
       </c>
       <c r="G264" t="n">
-        <v>16.55</v>
+        <v>100</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L264" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M264" t="n">
+        <v>15.6</v>
       </c>
     </row>
     <row r="265">
@@ -7062,7 +11822,25 @@
         <v>256.8</v>
       </c>
       <c r="G265" t="n">
-        <v>17.48333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1021.6</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="M265" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="266">
@@ -7087,7 +11865,25 @@
         <v>246.3</v>
       </c>
       <c r="G266" t="n">
-        <v>20.13333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1022.4</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L266" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="M266" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="267">
@@ -7112,7 +11908,25 @@
         <v>252.7</v>
       </c>
       <c r="G267" t="n">
-        <v>25.51666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L267" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="M267" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="268">
@@ -7137,7 +11951,25 @@
         <v>72.90000000000001</v>
       </c>
       <c r="G268" t="n">
-        <v>27.11666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1016.7</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L268" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="269">
@@ -7162,7 +11994,25 @@
         <v>45.7</v>
       </c>
       <c r="G269" t="n">
-        <v>33.26666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>31</v>
+      </c>
+      <c r="L269" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="M269" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="270">
@@ -7187,7 +12037,25 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G270" t="n">
-        <v>37.23333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1007.3</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="L270" t="n">
+        <v>43</v>
+      </c>
+      <c r="M270" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="271">
@@ -7212,7 +12080,25 @@
         <v>122.3</v>
       </c>
       <c r="G271" t="n">
-        <v>22.7</v>
+        <v>100</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1001.1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>23</v>
+      </c>
+      <c r="M271" t="n">
+        <v>18.1</v>
       </c>
     </row>
     <row r="272">
@@ -7237,7 +12123,25 @@
         <v>223.3</v>
       </c>
       <c r="G272" t="n">
-        <v>14.43333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L272" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="273">
@@ -7262,7 +12166,25 @@
         <v>88.90000000000001</v>
       </c>
       <c r="G273" t="n">
-        <v>19.11666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="274">
@@ -7287,7 +12209,25 @@
         <v>19.6</v>
       </c>
       <c r="G274" t="n">
-        <v>22.95</v>
+        <v>100</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L274" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="275">
@@ -7312,7 +12252,25 @@
         <v>218.1</v>
       </c>
       <c r="G275" t="n">
-        <v>26.38333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1012.4</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L275" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="M275" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="276">
@@ -7337,7 +12295,25 @@
         <v>249.2</v>
       </c>
       <c r="G276" t="n">
-        <v>13.52</v>
+        <v>100</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1013</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M276" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="277">
@@ -7362,7 +12338,25 @@
         <v>258.6</v>
       </c>
       <c r="G277" t="n">
-        <v>11.025</v>
+        <v>100</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1015.1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L277" t="n">
+        <v>7</v>
+      </c>
+      <c r="M277" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -7387,7 +12381,25 @@
         <v>259.4</v>
       </c>
       <c r="G278" t="n">
-        <v>20.3</v>
+        <v>100</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M278" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="279">
@@ -7412,7 +12424,25 @@
         <v>224.2</v>
       </c>
       <c r="G279" t="n">
-        <v>33.2</v>
+        <v>100</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="M279" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="280">
@@ -7437,7 +12467,25 @@
         <v>251.1</v>
       </c>
       <c r="G280" t="n">
-        <v>30.78333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1026.9</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="L280" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="281">
@@ -7462,7 +12510,25 @@
         <v>50.4</v>
       </c>
       <c r="G281" t="n">
-        <v>27.66</v>
+        <v>0</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1028</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>30</v>
+      </c>
+      <c r="L281" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="M281" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="282">
@@ -7487,7 +12553,25 @@
         <v>241.7</v>
       </c>
       <c r="G282" t="n">
-        <v>32.08333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="L282" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="283">
@@ -7512,7 +12596,25 @@
         <v>287.6</v>
       </c>
       <c r="G283" t="n">
-        <v>19.53333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1025.9</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="L283" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M283" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="284">
@@ -7537,7 +12639,25 @@
         <v>48.1</v>
       </c>
       <c r="G284" t="n">
-        <v>30.3</v>
+        <v>0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1024.1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L284" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="M284" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="285">
@@ -7562,7 +12682,25 @@
         <v>247.6</v>
       </c>
       <c r="G285" t="n">
-        <v>37.31666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>32</v>
+      </c>
+      <c r="M285" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="286">
@@ -7587,7 +12725,25 @@
         <v>40.7</v>
       </c>
       <c r="G286" t="n">
-        <v>36.15</v>
+        <v>100</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1027.1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L286" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="M286" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="287">
@@ -7612,7 +12768,25 @@
         <v>46.4</v>
       </c>
       <c r="G287" t="n">
-        <v>44.1</v>
+        <v>100</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="L287" t="n">
+        <v>49</v>
+      </c>
+      <c r="M287" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="288">
@@ -7637,7 +12811,25 @@
         <v>175.5</v>
       </c>
       <c r="G288" t="n">
-        <v>51.40000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="L288" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="M288" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="289">
@@ -7662,7 +12854,25 @@
         <v>163.4</v>
       </c>
       <c r="G289" t="n">
-        <v>31.91666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L289" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="M289" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="290">
@@ -7687,7 +12897,25 @@
         <v>220.7</v>
       </c>
       <c r="G290" t="n">
-        <v>29.71666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1021.5</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L290" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="M290" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="291">
@@ -7712,7 +12940,25 @@
         <v>175.4</v>
       </c>
       <c r="G291" t="n">
-        <v>40.76666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1028.2</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="L291" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="M291" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="292">
@@ -7737,7 +12983,25 @@
         <v>240.9</v>
       </c>
       <c r="G292" t="n">
-        <v>34.31666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1025.4</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="L292" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>24.2</v>
       </c>
     </row>
     <row r="293">
@@ -7762,7 +13026,25 @@
         <v>264.6</v>
       </c>
       <c r="G293" t="n">
-        <v>15.66666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L293" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="M293" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="294">
@@ -7787,7 +13069,25 @@
         <v>49.7</v>
       </c>
       <c r="G294" t="n">
-        <v>18.83333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1026.8</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="L294" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="M294" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="295">
@@ -7812,7 +13112,25 @@
         <v>43.4</v>
       </c>
       <c r="G295" t="n">
-        <v>43.48</v>
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>40</v>
+      </c>
+      <c r="L295" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="M295" t="n">
+        <v>37.4</v>
       </c>
     </row>
     <row r="296">
@@ -7837,7 +13155,25 @@
         <v>226.5</v>
       </c>
       <c r="G296" t="n">
-        <v>45.42</v>
+        <v>100</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K296" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="L296" t="n">
+        <v>47</v>
+      </c>
+      <c r="M296" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="297">
@@ -7862,7 +13198,25 @@
         <v>238.4</v>
       </c>
       <c r="G297" t="n">
-        <v>25.44</v>
+        <v>100</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1019.6</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L297" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M297" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="298">
@@ -7887,7 +13241,25 @@
         <v>239.3</v>
       </c>
       <c r="G298" t="n">
-        <v>33.15000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L298" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M298" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="299">
@@ -7912,7 +13284,25 @@
         <v>241.5</v>
       </c>
       <c r="G299" t="n">
-        <v>21.25</v>
+        <v>100</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1017.2</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L299" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="M299" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="300">
@@ -7937,7 +13327,25 @@
         <v>244.7</v>
       </c>
       <c r="G300" t="n">
-        <v>31.26666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1021.7</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="L300" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="M300" t="n">
+        <v>20.1</v>
       </c>
     </row>
     <row r="301">
@@ -7962,7 +13370,25 @@
         <v>225</v>
       </c>
       <c r="G301" t="n">
-        <v>40.08333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="L301" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="M301" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="302">
@@ -7987,7 +13413,25 @@
         <v>220.5</v>
       </c>
       <c r="G302" t="n">
-        <v>40.66666666666666</v>
+        <v>100</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1026.6</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>37</v>
+      </c>
+      <c r="L302" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="M302" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="303">
@@ -8012,7 +13456,25 @@
         <v>222.2</v>
       </c>
       <c r="G303" t="n">
-        <v>28.35</v>
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L303" t="n">
+        <v>27</v>
+      </c>
+      <c r="M303" t="n">
+        <v>25.1</v>
       </c>
     </row>
     <row r="304">
@@ -8037,7 +13499,25 @@
         <v>215.2</v>
       </c>
       <c r="G304" t="n">
-        <v>35.33333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="L304" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="M304" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="305">
@@ -8062,7 +13542,25 @@
         <v>200.6</v>
       </c>
       <c r="G305" t="n">
-        <v>45.93333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="L305" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="M305" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="306">
@@ -8087,7 +13585,25 @@
         <v>229.4</v>
       </c>
       <c r="G306" t="n">
-        <v>32.81666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1019</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="L306" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="M306" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="307">
@@ -8112,7 +13628,25 @@
         <v>241.7</v>
       </c>
       <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1021.9</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
         <v>27</v>
+      </c>
+      <c r="L307" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M307" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="308">
@@ -8137,7 +13671,25 @@
         <v>48.4</v>
       </c>
       <c r="G308" t="n">
-        <v>33.5</v>
+        <v>0</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>35</v>
+      </c>
+      <c r="L308" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="M308" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row r="309">
@@ -8162,7 +13714,25 @@
         <v>38.3</v>
       </c>
       <c r="G309" t="n">
-        <v>37.56666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1008.3</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L309" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="M309" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="310">
@@ -8187,7 +13757,25 @@
         <v>259.2</v>
       </c>
       <c r="G310" t="n">
-        <v>21.73333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>18</v>
+      </c>
+      <c r="L310" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M310" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="311">
@@ -8212,7 +13800,25 @@
         <v>62.2</v>
       </c>
       <c r="G311" t="n">
-        <v>26.51666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1020.3</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L311" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="M311" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="312">
@@ -8237,7 +13843,25 @@
         <v>248.9</v>
       </c>
       <c r="G312" t="n">
-        <v>26.43333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L312" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="M312" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="313">
@@ -8262,7 +13886,25 @@
         <v>26.7</v>
       </c>
       <c r="G313" t="n">
-        <v>43.15</v>
+        <v>0</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1019</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="L313" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="M313" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="314">
@@ -8287,7 +13929,25 @@
         <v>181.7</v>
       </c>
       <c r="G314" t="n">
-        <v>56.26666666666665</v>
+        <v>0</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L314" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="M314" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="315">
@@ -8312,7 +13972,25 @@
         <v>226.3</v>
       </c>
       <c r="G315" t="n">
-        <v>43.38333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L315" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="M315" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="316">
@@ -8337,7 +14015,25 @@
         <v>225.6</v>
       </c>
       <c r="G316" t="n">
-        <v>36.03333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1032.1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>33</v>
+      </c>
+      <c r="L316" t="n">
+        <v>35</v>
+      </c>
+      <c r="M316" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="317">
@@ -8362,7 +14058,23 @@
         <v>215</v>
       </c>
       <c r="G317" t="n">
-        <v>37.88</v>
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1032.9</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="M317" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="318">
@@ -8387,7 +14099,23 @@
         <v>56</v>
       </c>
       <c r="G318" t="n">
-        <v>39.92</v>
+        <v>100</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1031.5</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="M318" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="319">
@@ -8412,7 +14140,25 @@
         <v>63.8</v>
       </c>
       <c r="G319" t="n">
-        <v>26.3</v>
+        <v>100</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1025.7</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L319" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="M319" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="320">
@@ -8437,7 +14183,25 @@
         <v>87</v>
       </c>
       <c r="G320" t="n">
-        <v>43.33333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="L320" t="n">
+        <v>50</v>
+      </c>
+      <c r="M320" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="321">
@@ -8462,7 +14226,25 @@
         <v>44.2</v>
       </c>
       <c r="G321" t="n">
-        <v>35.58333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1006</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>34</v>
+      </c>
+      <c r="L321" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="M321" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="322">
@@ -8487,7 +14269,25 @@
         <v>51.5</v>
       </c>
       <c r="G322" t="n">
-        <v>10.78333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>8</v>
+      </c>
+      <c r="L322" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="M322" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="323">
@@ -8512,7 +14312,25 @@
         <v>35.1</v>
       </c>
       <c r="G323" t="n">
-        <v>21.55</v>
+        <v>100</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1004.6</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L323" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="M323" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -8537,7 +14355,25 @@
         <v>326</v>
       </c>
       <c r="G324" t="n">
-        <v>30.06666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1013</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="L324" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="M324" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="325">
@@ -8562,7 +14398,25 @@
         <v>30.3</v>
       </c>
       <c r="G325" t="n">
-        <v>78.76666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1</v>
+      </c>
+      <c r="K325" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L325" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M325" t="n">
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="326">
@@ -8587,7 +14441,25 @@
         <v>25.1</v>
       </c>
       <c r="G326" t="n">
-        <v>78.46666666666665</v>
+        <v>0</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1007.3</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="L326" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="M326" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="327">
@@ -8612,7 +14484,25 @@
         <v>41.5</v>
       </c>
       <c r="G327" t="n">
-        <v>43.23333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1005.9</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="L327" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="M327" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="328">
@@ -8637,7 +14527,25 @@
         <v>50.7</v>
       </c>
       <c r="G328" t="n">
-        <v>36.78333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L328" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="M328" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="329">
@@ -8662,7 +14570,25 @@
         <v>251.1</v>
       </c>
       <c r="G329" t="n">
-        <v>34.76666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1011.1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L329" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="M329" t="n">
+        <v>41.9</v>
       </c>
     </row>
     <row r="330">
@@ -8687,7 +14613,25 @@
         <v>209.5</v>
       </c>
       <c r="G330" t="n">
-        <v>64.13333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1018.9</v>
+      </c>
+      <c r="I330" t="n">
+        <v>1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>69</v>
+      </c>
+      <c r="L330" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="M330" t="n">
+        <v>50.5</v>
       </c>
     </row>
     <row r="331">
@@ -8712,7 +14656,25 @@
         <v>248.5</v>
       </c>
       <c r="G331" t="n">
-        <v>43.36666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1025.9</v>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="L331" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="M331" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="332">
@@ -8737,7 +14699,25 @@
         <v>26</v>
       </c>
       <c r="G332" t="n">
-        <v>28.91666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1029.4</v>
+      </c>
+      <c r="I332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>27</v>
+      </c>
+      <c r="L332" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="M332" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="333">
@@ -8762,7 +14742,25 @@
         <v>38.5</v>
       </c>
       <c r="G333" t="n">
-        <v>41.3</v>
+        <v>100</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1023</v>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="M333" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="334">
@@ -8787,7 +14785,25 @@
         <v>52.4</v>
       </c>
       <c r="G334" t="n">
-        <v>35.4</v>
+        <v>100</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="L334" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="M334" t="n">
+        <v>41.8</v>
       </c>
     </row>
     <row r="335">
@@ -8812,7 +14828,25 @@
         <v>65.2</v>
       </c>
       <c r="G335" t="n">
-        <v>32.06666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1027.4</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="L335" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="M335" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="336">
@@ -8837,7 +14871,25 @@
         <v>61</v>
       </c>
       <c r="G336" t="n">
-        <v>30.41666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1027.1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="M336" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="337">
@@ -8862,7 +14914,25 @@
         <v>52.2</v>
       </c>
       <c r="G337" t="n">
-        <v>33.44</v>
+        <v>100</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1025.6</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L337" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="M337" t="n">
+        <v>31.8</v>
       </c>
     </row>
     <row r="338">
@@ -8887,7 +14957,25 @@
         <v>49.9</v>
       </c>
       <c r="G338" t="n">
-        <v>59.375</v>
+        <v>100</v>
+      </c>
+      <c r="H338" t="n">
+        <v>1025.1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L338" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="M338" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="339">
@@ -8912,7 +15000,25 @@
         <v>46.5</v>
       </c>
       <c r="G339" t="n">
-        <v>26.91666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L339" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="M339" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="340">
@@ -8937,7 +15043,25 @@
         <v>56.4</v>
       </c>
       <c r="G340" t="n">
-        <v>39.15</v>
+        <v>0</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1020.7</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="L340" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="341">
@@ -8962,7 +15086,25 @@
         <v>246</v>
       </c>
       <c r="G341" t="n">
-        <v>34.96666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1014.2</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L341" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M341" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="342">
@@ -8987,7 +15129,25 @@
         <v>232.8</v>
       </c>
       <c r="G342" t="n">
-        <v>14.48</v>
+        <v>100</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1011.4</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L342" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="M342" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="343">
@@ -9012,7 +15172,25 @@
         <v>214.1</v>
       </c>
       <c r="G343" t="n">
-        <v>30.06666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L343" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>19.8</v>
       </c>
     </row>
     <row r="344">
@@ -9037,7 +15215,25 @@
         <v>49.2</v>
       </c>
       <c r="G344" t="n">
-        <v>44.3</v>
+        <v>100</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1007.6</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>42</v>
+      </c>
+      <c r="L344" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="M344" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="345">
@@ -9062,7 +15258,25 @@
         <v>28.1</v>
       </c>
       <c r="G345" t="n">
-        <v>25.7</v>
+        <v>100</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1005</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>23</v>
+      </c>
+      <c r="L345" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="M345" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="346">
@@ -9087,7 +15301,25 @@
         <v>292</v>
       </c>
       <c r="G346" t="n">
-        <v>21.48333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1003.4</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L346" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="M346" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="347">
@@ -9112,7 +15344,25 @@
         <v>233.7</v>
       </c>
       <c r="G347" t="n">
-        <v>27.31666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1005.1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L347" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M347" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="348">
@@ -9137,7 +15387,25 @@
         <v>241.5</v>
       </c>
       <c r="G348" t="n">
-        <v>25.46666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1012.7</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>23</v>
+      </c>
+      <c r="L348" t="n">
+        <v>23</v>
+      </c>
+      <c r="M348" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="349">
@@ -9162,7 +15430,25 @@
         <v>42.9</v>
       </c>
       <c r="G349" t="n">
-        <v>64.14999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="L349" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="M349" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="350">
@@ -9187,7 +15473,25 @@
         <v>155.6</v>
       </c>
       <c r="G350" t="n">
-        <v>67.48333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1009</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L350" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="M350" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="351">
@@ -9212,7 +15516,25 @@
         <v>20.8</v>
       </c>
       <c r="G351" t="n">
-        <v>44.68333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1009.1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="L351" t="n">
+        <v>43</v>
+      </c>
+      <c r="M351" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="352">
@@ -9237,7 +15559,25 @@
         <v>255</v>
       </c>
       <c r="G352" t="n">
-        <v>61.15000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H352" t="n">
+        <v>1021.8</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K352" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L352" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="M352" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="353">
@@ -9262,7 +15602,25 @@
         <v>274.1</v>
       </c>
       <c r="G353" t="n">
-        <v>51.33333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1037</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K353" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="L353" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="M353" t="n">
+        <v>50.4</v>
       </c>
     </row>
     <row r="354">
@@ -9287,7 +15645,25 @@
         <v>46.8</v>
       </c>
       <c r="G354" t="n">
-        <v>87.63333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H354" t="n">
+        <v>1034.7</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="L354" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="M354" t="n">
+        <v>100.3</v>
       </c>
     </row>
     <row r="355">
@@ -9312,7 +15688,25 @@
         <v>217</v>
       </c>
       <c r="G355" t="n">
-        <v>92.71666666666665</v>
+        <v>0</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="L355" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="M355" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="356">
@@ -9337,7 +15731,25 @@
         <v>208.8</v>
       </c>
       <c r="G356" t="n">
-        <v>75.8</v>
+        <v>100</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1017.2</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>73</v>
+      </c>
+      <c r="L356" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="M356" t="n">
+        <v>65.5</v>
       </c>
     </row>
     <row r="357">
@@ -9362,7 +15774,25 @@
         <v>203.8</v>
       </c>
       <c r="G357" t="n">
-        <v>62.88333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1011.5</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L357" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="M357" t="n">
+        <v>41.6</v>
       </c>
     </row>
     <row r="358">
@@ -9387,7 +15817,25 @@
         <v>222.7</v>
       </c>
       <c r="G358" t="n">
-        <v>27.85</v>
+        <v>100</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1008.2</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L358" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="M358" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="359">
@@ -9412,7 +15860,25 @@
         <v>231.6</v>
       </c>
       <c r="G359" t="n">
-        <v>24.23333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1010.3</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L359" t="n">
+        <v>26</v>
+      </c>
+      <c r="M359" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="360">
@@ -9437,7 +15903,25 @@
         <v>263</v>
       </c>
       <c r="G360" t="n">
-        <v>31.13333333333334</v>
+        <v>100</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>30</v>
+      </c>
+      <c r="L360" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="M360" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="361">
@@ -9462,7 +15946,25 @@
         <v>236.6</v>
       </c>
       <c r="G361" t="n">
-        <v>35.01666666666667</v>
+        <v>100</v>
+      </c>
+      <c r="H361" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>34</v>
+      </c>
+      <c r="L361" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="M361" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="362">
@@ -9487,7 +15989,25 @@
         <v>250.1</v>
       </c>
       <c r="G362" t="n">
-        <v>15.3</v>
+        <v>100</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1021.9</v>
+      </c>
+      <c r="I362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L362" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M362" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="363">
@@ -9512,7 +16032,25 @@
         <v>221.4</v>
       </c>
       <c r="G363" t="n">
-        <v>25.53333333333333</v>
+        <v>100</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1022.8</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L363" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M363" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="364">
@@ -9537,7 +16075,25 @@
         <v>227.3</v>
       </c>
       <c r="G364" t="n">
-        <v>35.9</v>
+        <v>0</v>
+      </c>
+      <c r="H364" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L364" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="M364" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="365">
@@ -9562,7 +16118,25 @@
         <v>210.2</v>
       </c>
       <c r="G365" t="n">
-        <v>54.65000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H365" t="n">
+        <v>1018.1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="L365" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M365" t="n">
+        <v>40.3</v>
       </c>
     </row>
     <row r="366">
@@ -9587,7 +16161,25 @@
         <v>232.7</v>
       </c>
       <c r="G366" t="n">
-        <v>34.38333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
+        <v>1018.9</v>
+      </c>
+      <c r="I366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="K366" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="L366" t="n">
+        <v>40</v>
+      </c>
+      <c r="M366" t="n">
+        <v>18.4</v>
       </c>
     </row>
   </sheetData>

--- a/smog_weather_data.xlsx
+++ b/smog_weather_data.xlsx
@@ -517,7 +517,7 @@
         <v>246.6</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1020.3</v>
@@ -558,7 +558,7 @@
         <v>228.9</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1018</v>
@@ -601,7 +601,7 @@
         <v>239.8</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1009.2</v>
@@ -644,7 +644,7 @@
         <v>214.1</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1000.3</v>
@@ -687,7 +687,7 @@
         <v>244.6</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1000.1</v>
@@ -730,7 +730,7 @@
         <v>251.3</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1010.8</v>
@@ -773,7 +773,7 @@
         <v>249.6</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1020.9</v>
@@ -945,7 +945,7 @@
         <v>38.4</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1033.3</v>
@@ -1074,7 +1074,7 @@
         <v>247.1</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1025.2</v>
@@ -1117,7 +1117,7 @@
         <v>252.9</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1027.3</v>
@@ -1203,7 +1203,7 @@
         <v>242.8</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1016</v>
@@ -1289,7 +1289,7 @@
         <v>231.3</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1026.1</v>
@@ -1332,7 +1332,7 @@
         <v>245.1</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1012.2</v>
@@ -1375,7 +1375,7 @@
         <v>259.3</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1017.7</v>
@@ -1418,7 +1418,7 @@
         <v>265.4</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1021.7</v>
@@ -1461,7 +1461,7 @@
         <v>285</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1030.4</v>
@@ -1504,7 +1504,7 @@
         <v>294.2</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1035.3</v>
@@ -1547,7 +1547,7 @@
         <v>236.4</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1029.6</v>
@@ -1590,7 +1590,7 @@
         <v>233.5</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1025.5</v>
@@ -1633,7 +1633,7 @@
         <v>238.5</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1018.6</v>
@@ -1676,7 +1676,7 @@
         <v>254.2</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1016.1</v>
@@ -1719,7 +1719,7 @@
         <v>233</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1020.4</v>
@@ -1762,7 +1762,7 @@
         <v>253.2</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1006.1</v>
@@ -1805,7 +1805,7 @@
         <v>250.6</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1007.1</v>
@@ -1848,7 +1848,7 @@
         <v>229.5</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1007.7</v>
@@ -1891,7 +1891,7 @@
         <v>249</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1003</v>
@@ -1934,7 +1934,7 @@
         <v>245.2</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1018.8</v>
@@ -1977,7 +1977,7 @@
         <v>229.6</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1013.4</v>
@@ -2020,7 +2020,7 @@
         <v>243.4</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1014.9</v>
@@ -2063,7 +2063,7 @@
         <v>214.9</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>1009.9</v>
@@ -2106,7 +2106,7 @@
         <v>252.4</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>1004.9</v>
@@ -2149,7 +2149,7 @@
         <v>245.7</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1021.5</v>
@@ -2192,7 +2192,7 @@
         <v>235.7</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1024.7</v>
@@ -2278,7 +2278,7 @@
         <v>248.5</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>1020.3</v>
@@ -2321,7 +2321,7 @@
         <v>269.4</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>1032.9</v>
@@ -2493,7 +2493,7 @@
         <v>216.7</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1009.3</v>
@@ -2536,7 +2536,7 @@
         <v>240.8</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>995.5</v>
@@ -2579,7 +2579,7 @@
         <v>243.6</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1007</v>
@@ -2622,7 +2622,7 @@
         <v>242.5</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1008.5</v>
@@ -2665,7 +2665,7 @@
         <v>232</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1011.9</v>
@@ -2708,7 +2708,7 @@
         <v>228.5</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1000.7</v>
@@ -2751,7 +2751,7 @@
         <v>250.3</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1010.3</v>
@@ -2794,7 +2794,7 @@
         <v>253.4</v>
       </c>
       <c r="G55" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1019.5</v>
@@ -2880,7 +2880,7 @@
         <v>245.9</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1018.3</v>
@@ -2923,7 +2923,7 @@
         <v>261.2</v>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1029.2</v>
@@ -2966,7 +2966,7 @@
         <v>14.9</v>
       </c>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1034.3</v>
@@ -3181,7 +3181,7 @@
         <v>318</v>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1019.5</v>
@@ -3224,7 +3224,7 @@
         <v>30.1</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>1022.5</v>
@@ -3310,7 +3310,7 @@
         <v>307.8</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1021.1</v>
@@ -3353,7 +3353,7 @@
         <v>285</v>
       </c>
       <c r="G68" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1023.1</v>
@@ -3396,7 +3396,7 @@
         <v>282.1</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1023.3</v>
@@ -3439,7 +3439,7 @@
         <v>50.2</v>
       </c>
       <c r="G70" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1032.4</v>
@@ -3697,7 +3697,7 @@
         <v>28.1</v>
       </c>
       <c r="G76" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>1023.6</v>
@@ -4170,7 +4170,7 @@
         <v>22.1</v>
       </c>
       <c r="G87" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1030.9</v>
@@ -4256,7 +4256,7 @@
         <v>252.8</v>
       </c>
       <c r="G89" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1009</v>
@@ -4299,7 +4299,7 @@
         <v>27.1</v>
       </c>
       <c r="G90" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1004.4</v>
@@ -4342,7 +4342,7 @@
         <v>35.3</v>
       </c>
       <c r="G91" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1000.5</v>
@@ -4385,7 +4385,7 @@
         <v>21.5</v>
       </c>
       <c r="G92" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>998.3</v>
@@ -4428,7 +4428,7 @@
         <v>325.5</v>
       </c>
       <c r="G93" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>1004</v>
@@ -4471,7 +4471,7 @@
         <v>298.1</v>
       </c>
       <c r="G94" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1013.6</v>
@@ -4557,7 +4557,7 @@
         <v>228.9</v>
       </c>
       <c r="G96" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1003.7</v>
@@ -4600,7 +4600,7 @@
         <v>221.6</v>
       </c>
       <c r="G97" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>1004.8</v>
@@ -4686,7 +4686,7 @@
         <v>238.9</v>
       </c>
       <c r="G99" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>996.3</v>
@@ -4729,7 +4729,7 @@
         <v>273</v>
       </c>
       <c r="G100" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>1001.2</v>
@@ -4772,7 +4772,7 @@
         <v>255.5</v>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1014.9</v>
@@ -4815,7 +4815,7 @@
         <v>265.3</v>
       </c>
       <c r="G102" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>1020</v>
@@ -4858,7 +4858,7 @@
         <v>41.8</v>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>1021.1</v>
@@ -4987,7 +4987,7 @@
         <v>254</v>
       </c>
       <c r="G106" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>1019.2</v>
@@ -5030,7 +5030,7 @@
         <v>341.7</v>
       </c>
       <c r="G107" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>1025.1</v>
@@ -5116,7 +5116,7 @@
         <v>342</v>
       </c>
       <c r="G109" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>1017.7</v>
@@ -5159,7 +5159,7 @@
         <v>38.8</v>
       </c>
       <c r="G110" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>1012.3</v>
@@ -5245,7 +5245,7 @@
         <v>241.3</v>
       </c>
       <c r="G112" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1012.6</v>
@@ -5288,7 +5288,7 @@
         <v>47.1</v>
       </c>
       <c r="G113" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>1010.3</v>
@@ -5331,7 +5331,7 @@
         <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>1008.6</v>
@@ -5374,7 +5374,7 @@
         <v>63.3</v>
       </c>
       <c r="G115" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>1004.9</v>
@@ -5417,7 +5417,7 @@
         <v>259.9</v>
       </c>
       <c r="G116" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>1006.1</v>
@@ -5460,7 +5460,7 @@
         <v>281.4</v>
       </c>
       <c r="G117" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>1015.8</v>
@@ -5503,7 +5503,7 @@
         <v>89.3</v>
       </c>
       <c r="G118" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>1021.2</v>
@@ -5546,7 +5546,7 @@
         <v>352.2</v>
       </c>
       <c r="G119" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>1024.8</v>
@@ -5761,7 +5761,7 @@
         <v>299.5</v>
       </c>
       <c r="G124" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>1015.1</v>
@@ -5804,7 +5804,7 @@
         <v>45.5</v>
       </c>
       <c r="G125" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>1017.6</v>
@@ -5847,7 +5847,7 @@
         <v>22.1</v>
       </c>
       <c r="G126" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>1019.5</v>
@@ -5890,7 +5890,7 @@
         <v>253.7</v>
       </c>
       <c r="G127" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>1022.5</v>
@@ -5933,7 +5933,7 @@
         <v>266.2</v>
       </c>
       <c r="G128" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>1022.4</v>
@@ -5976,7 +5976,7 @@
         <v>197.4</v>
       </c>
       <c r="G129" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>1022.6</v>
@@ -6019,7 +6019,7 @@
         <v>35.4</v>
       </c>
       <c r="G130" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>1025.7</v>
@@ -6191,7 +6191,7 @@
         <v>253.8</v>
       </c>
       <c r="G134" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1016.1</v>
@@ -6363,7 +6363,7 @@
         <v>27.4</v>
       </c>
       <c r="G138" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>1018.2</v>
@@ -6535,7 +6535,7 @@
         <v>269.9</v>
       </c>
       <c r="G142" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>1013.3</v>
@@ -6664,7 +6664,7 @@
         <v>34.2</v>
       </c>
       <c r="G145" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>1009.9</v>
@@ -6707,7 +6707,7 @@
         <v>261.5</v>
       </c>
       <c r="G146" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>1014.3</v>
@@ -6793,7 +6793,7 @@
         <v>240.5</v>
       </c>
       <c r="G148" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>1015.4</v>
@@ -6836,7 +6836,7 @@
         <v>244.7</v>
       </c>
       <c r="G149" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>1013.7</v>
@@ -6922,7 +6922,7 @@
         <v>252.7</v>
       </c>
       <c r="G151" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>1011.4</v>
@@ -6965,7 +6965,7 @@
         <v>63.2</v>
       </c>
       <c r="G152" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1015.7</v>
@@ -7008,7 +7008,7 @@
         <v>239</v>
       </c>
       <c r="G153" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>1014.7</v>
@@ -7051,7 +7051,7 @@
         <v>279.2</v>
       </c>
       <c r="G154" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>1018.9</v>
@@ -7137,7 +7137,7 @@
         <v>38.5</v>
       </c>
       <c r="G156" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>1018.2</v>
@@ -7180,7 +7180,7 @@
         <v>44.4</v>
       </c>
       <c r="G157" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>1019.3</v>
@@ -7266,7 +7266,7 @@
         <v>241.5</v>
       </c>
       <c r="G159" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>1013.3</v>
@@ -7309,7 +7309,7 @@
         <v>22.5</v>
       </c>
       <c r="G160" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>1011.1</v>
@@ -7352,7 +7352,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>1009.1</v>
@@ -7395,7 +7395,7 @@
         <v>280.2</v>
       </c>
       <c r="G162" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>1018</v>
@@ -7524,7 +7524,7 @@
         <v>285.7</v>
       </c>
       <c r="G165" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>1015.9</v>
@@ -7567,7 +7567,7 @@
         <v>263.7</v>
       </c>
       <c r="G166" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>1020.4</v>
@@ -7653,7 +7653,7 @@
         <v>257.9</v>
       </c>
       <c r="G168" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>1018.2</v>
@@ -7696,7 +7696,7 @@
         <v>262.7</v>
       </c>
       <c r="G169" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>1020.9</v>
@@ -7825,7 +7825,7 @@
         <v>252.5</v>
       </c>
       <c r="G172" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>1009.3</v>
@@ -7868,7 +7868,7 @@
         <v>262.5</v>
       </c>
       <c r="G173" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>1012.3</v>
@@ -8124,7 +8124,7 @@
         <v>47.7</v>
       </c>
       <c r="G179" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>1016.9</v>
@@ -8167,7 +8167,7 @@
         <v>261.5</v>
       </c>
       <c r="G180" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>1018.1</v>
@@ -8210,7 +8210,7 @@
         <v>42.1</v>
       </c>
       <c r="G181" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>1016.4</v>
@@ -8253,7 +8253,7 @@
         <v>38.8</v>
       </c>
       <c r="G182" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>1012.8</v>
@@ -8339,7 +8339,7 @@
         <v>260.7</v>
       </c>
       <c r="G184" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>1022.6</v>
@@ -8382,7 +8382,7 @@
         <v>34.3</v>
       </c>
       <c r="G185" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>1020</v>
@@ -8468,7 +8468,7 @@
         <v>348.1</v>
       </c>
       <c r="G187" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>1017.4</v>
@@ -8511,7 +8511,7 @@
         <v>292.1</v>
       </c>
       <c r="G188" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>1018.4</v>
@@ -8597,7 +8597,7 @@
         <v>238.4</v>
       </c>
       <c r="G190" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>1021.2</v>
@@ -8640,7 +8640,7 @@
         <v>252</v>
       </c>
       <c r="G191" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>1021</v>
@@ -8683,7 +8683,7 @@
         <v>282.3</v>
       </c>
       <c r="G192" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>1016.4</v>
@@ -8726,7 +8726,7 @@
         <v>256</v>
       </c>
       <c r="G193" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>1018.3</v>
@@ -8769,7 +8769,7 @@
         <v>247.8</v>
       </c>
       <c r="G194" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>1019.2</v>
@@ -8812,7 +8812,7 @@
         <v>256.9</v>
       </c>
       <c r="G195" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>1017.7</v>
@@ -8855,7 +8855,7 @@
         <v>251.6</v>
       </c>
       <c r="G196" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>1015</v>
@@ -8898,7 +8898,7 @@
         <v>278.2</v>
       </c>
       <c r="G197" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1016.8</v>
@@ -8984,7 +8984,7 @@
         <v>257.6</v>
       </c>
       <c r="G199" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>1024.8</v>
@@ -9199,7 +9199,7 @@
         <v>250.7</v>
       </c>
       <c r="G204" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>1017.1</v>
@@ -9242,7 +9242,7 @@
         <v>269.7</v>
       </c>
       <c r="G205" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>1015.6</v>
@@ -9285,7 +9285,7 @@
         <v>279.3</v>
       </c>
       <c r="G206" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>1018.6</v>
@@ -9371,7 +9371,7 @@
         <v>256.5</v>
       </c>
       <c r="G208" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>1011.7</v>
@@ -9414,7 +9414,7 @@
         <v>230</v>
       </c>
       <c r="G209" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>1015.5</v>
@@ -9457,7 +9457,7 @@
         <v>55.5</v>
       </c>
       <c r="G210" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>1018.7</v>
@@ -9500,7 +9500,7 @@
         <v>49.7</v>
       </c>
       <c r="G211" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>1018.1</v>
@@ -9543,7 +9543,7 @@
         <v>307</v>
       </c>
       <c r="G212" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>1013</v>
@@ -9586,7 +9586,7 @@
         <v>248.8</v>
       </c>
       <c r="G213" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>1011.3</v>
@@ -9629,7 +9629,7 @@
         <v>242.4</v>
       </c>
       <c r="G214" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>1014.3</v>
@@ -9672,7 +9672,7 @@
         <v>268.3</v>
       </c>
       <c r="G215" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>1017.7</v>
@@ -9844,7 +9844,7 @@
         <v>290.7</v>
       </c>
       <c r="G219" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>1019.4</v>
@@ -9930,7 +9930,7 @@
         <v>52.8</v>
       </c>
       <c r="G221" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>1023.3</v>
@@ -10059,7 +10059,7 @@
         <v>43</v>
       </c>
       <c r="G224" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>1023.3</v>
@@ -10102,7 +10102,7 @@
         <v>59.8</v>
       </c>
       <c r="G225" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>1020.9</v>
@@ -10145,7 +10145,7 @@
         <v>38.6</v>
       </c>
       <c r="G226" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>1016</v>
@@ -10188,7 +10188,7 @@
         <v>42.3</v>
       </c>
       <c r="G227" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>1010.8</v>
@@ -10231,7 +10231,7 @@
         <v>46.7</v>
       </c>
       <c r="G228" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>1007.9</v>
@@ -10274,7 +10274,7 @@
         <v>265.7</v>
       </c>
       <c r="G229" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>1009</v>
@@ -10317,7 +10317,7 @@
         <v>293.6</v>
       </c>
       <c r="G230" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>1011.5</v>
@@ -10403,7 +10403,7 @@
         <v>57.9</v>
       </c>
       <c r="G232" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>1011.2</v>
@@ -10446,7 +10446,7 @@
         <v>219</v>
       </c>
       <c r="G233" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>1012</v>
@@ -10489,7 +10489,7 @@
         <v>235.4</v>
       </c>
       <c r="G234" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>1010.9</v>
@@ -10532,7 +10532,7 @@
         <v>212.8</v>
       </c>
       <c r="G235" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>1011.9</v>
@@ -10575,7 +10575,7 @@
         <v>232.5</v>
       </c>
       <c r="G236" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>1014.4</v>
@@ -10618,7 +10618,7 @@
         <v>241.4</v>
       </c>
       <c r="G237" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>1018.4</v>
@@ -10661,7 +10661,7 @@
         <v>49.9</v>
       </c>
       <c r="G238" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>1017.4</v>
@@ -10790,7 +10790,7 @@
         <v>226.5</v>
       </c>
       <c r="G241" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>1013.3</v>
@@ -10833,7 +10833,7 @@
         <v>255.1</v>
       </c>
       <c r="G242" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>1018</v>
@@ -10876,7 +10876,7 @@
         <v>292.9</v>
       </c>
       <c r="G243" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>1020.4</v>
@@ -10919,7 +10919,7 @@
         <v>36.1</v>
       </c>
       <c r="G244" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>1020.4</v>
@@ -11091,7 +11091,7 @@
         <v>41.8</v>
       </c>
       <c r="G248" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>1022.4</v>
@@ -11134,7 +11134,7 @@
         <v>52.9</v>
       </c>
       <c r="G249" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>1025.6</v>
@@ -11263,7 +11263,7 @@
         <v>54.7</v>
       </c>
       <c r="G252" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>1013.1</v>
@@ -11306,7 +11306,7 @@
         <v>257.6</v>
       </c>
       <c r="G253" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>1014.3</v>
@@ -11349,7 +11349,7 @@
         <v>341.7</v>
       </c>
       <c r="G254" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>1012.9</v>
@@ -11392,7 +11392,7 @@
         <v>260.4</v>
       </c>
       <c r="G255" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>1012.2</v>
@@ -11435,7 +11435,7 @@
         <v>274.4</v>
       </c>
       <c r="G256" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
         <v>1015.5</v>
@@ -11521,7 +11521,7 @@
         <v>222.5</v>
       </c>
       <c r="G258" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>1006.7</v>
@@ -11564,7 +11564,7 @@
         <v>251.4</v>
       </c>
       <c r="G259" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>1002.7</v>
@@ -11607,7 +11607,7 @@
         <v>248.9</v>
       </c>
       <c r="G260" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>1006.4</v>
@@ -11650,7 +11650,7 @@
         <v>240.1</v>
       </c>
       <c r="G261" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>1006.2</v>
@@ -11693,7 +11693,7 @@
         <v>251.5</v>
       </c>
       <c r="G262" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>1006.5</v>
@@ -11736,7 +11736,7 @@
         <v>237.6</v>
       </c>
       <c r="G263" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>1010.2</v>
@@ -11779,7 +11779,7 @@
         <v>256.9</v>
       </c>
       <c r="G264" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>1016.2</v>
@@ -11822,7 +11822,7 @@
         <v>256.8</v>
       </c>
       <c r="G265" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>1021.6</v>
@@ -11865,7 +11865,7 @@
         <v>246.3</v>
       </c>
       <c r="G266" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>1022.4</v>
@@ -11908,7 +11908,7 @@
         <v>252.7</v>
       </c>
       <c r="G267" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>1020.3</v>
@@ -11951,7 +11951,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="G268" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>1016.7</v>
@@ -11994,7 +11994,7 @@
         <v>45.7</v>
       </c>
       <c r="G269" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>1013.4</v>
@@ -12037,7 +12037,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G270" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>1007.3</v>
@@ -12080,7 +12080,7 @@
         <v>122.3</v>
       </c>
       <c r="G271" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>1001.1</v>
@@ -12123,7 +12123,7 @@
         <v>223.3</v>
       </c>
       <c r="G272" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>1000</v>
@@ -12166,7 +12166,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="G273" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>1004.5</v>
@@ -12209,7 +12209,7 @@
         <v>19.6</v>
       </c>
       <c r="G274" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>1011.2</v>
@@ -12252,7 +12252,7 @@
         <v>218.1</v>
       </c>
       <c r="G275" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>1012.4</v>
@@ -12295,7 +12295,7 @@
         <v>249.2</v>
       </c>
       <c r="G276" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
         <v>1013</v>
@@ -12338,7 +12338,7 @@
         <v>258.6</v>
       </c>
       <c r="G277" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>1015.1</v>
@@ -12381,7 +12381,7 @@
         <v>259.4</v>
       </c>
       <c r="G278" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>1020.3</v>
@@ -12424,7 +12424,7 @@
         <v>224.2</v>
       </c>
       <c r="G279" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>1024.2</v>
@@ -12596,7 +12596,7 @@
         <v>287.6</v>
       </c>
       <c r="G283" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
         <v>1025.9</v>
@@ -12682,7 +12682,7 @@
         <v>247.6</v>
       </c>
       <c r="G285" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>1023.6</v>
@@ -12725,7 +12725,7 @@
         <v>40.7</v>
       </c>
       <c r="G286" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
         <v>1027.1</v>
@@ -12768,7 +12768,7 @@
         <v>46.4</v>
       </c>
       <c r="G287" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>1023.6</v>
@@ -12811,7 +12811,7 @@
         <v>175.5</v>
       </c>
       <c r="G288" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>1018.5</v>
@@ -12854,7 +12854,7 @@
         <v>163.4</v>
       </c>
       <c r="G289" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>1016</v>
@@ -13026,7 +13026,7 @@
         <v>264.6</v>
       </c>
       <c r="G293" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
         <v>1024.2</v>
@@ -13069,7 +13069,7 @@
         <v>49.7</v>
       </c>
       <c r="G294" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
         <v>1026.8</v>
@@ -13155,7 +13155,7 @@
         <v>226.5</v>
       </c>
       <c r="G296" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H296" t="n">
         <v>1015.8</v>
@@ -13198,7 +13198,7 @@
         <v>238.4</v>
       </c>
       <c r="G297" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>1019.6</v>
@@ -13241,7 +13241,7 @@
         <v>239.3</v>
       </c>
       <c r="G298" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H298" t="n">
         <v>1016.2</v>
@@ -13284,7 +13284,7 @@
         <v>241.5</v>
       </c>
       <c r="G299" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
         <v>1017.2</v>
@@ -13327,7 +13327,7 @@
         <v>244.7</v>
       </c>
       <c r="G300" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>1021.7</v>
@@ -13370,7 +13370,7 @@
         <v>225</v>
       </c>
       <c r="G301" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>1027.5</v>
@@ -13413,7 +13413,7 @@
         <v>220.5</v>
       </c>
       <c r="G302" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H302" t="n">
         <v>1026.6</v>
@@ -13714,7 +13714,7 @@
         <v>38.3</v>
       </c>
       <c r="G309" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>1008.3</v>
@@ -13757,7 +13757,7 @@
         <v>259.2</v>
       </c>
       <c r="G310" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
         <v>1013.4</v>
@@ -13800,7 +13800,7 @@
         <v>62.2</v>
       </c>
       <c r="G311" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>1020.3</v>
@@ -13843,7 +13843,7 @@
         <v>248.9</v>
       </c>
       <c r="G312" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H312" t="n">
         <v>1018.6</v>
@@ -13972,7 +13972,7 @@
         <v>226.3</v>
       </c>
       <c r="G315" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>1024.2</v>
@@ -14015,7 +14015,7 @@
         <v>225.6</v>
       </c>
       <c r="G316" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H316" t="n">
         <v>1032.1</v>
@@ -14099,7 +14099,7 @@
         <v>56</v>
       </c>
       <c r="G318" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H318" t="n">
         <v>1031.5</v>
@@ -14140,7 +14140,7 @@
         <v>63.8</v>
       </c>
       <c r="G319" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>1025.7</v>
@@ -14183,7 +14183,7 @@
         <v>87</v>
       </c>
       <c r="G320" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H320" t="n">
         <v>1015.8</v>
@@ -14226,7 +14226,7 @@
         <v>44.2</v>
       </c>
       <c r="G321" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
         <v>1006</v>
@@ -14269,7 +14269,7 @@
         <v>51.5</v>
       </c>
       <c r="G322" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H322" t="n">
         <v>1005.2</v>
@@ -14312,7 +14312,7 @@
         <v>35.1</v>
       </c>
       <c r="G323" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>1004.6</v>
@@ -14355,7 +14355,7 @@
         <v>326</v>
       </c>
       <c r="G324" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H324" t="n">
         <v>1013</v>
@@ -14484,7 +14484,7 @@
         <v>41.5</v>
       </c>
       <c r="G327" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H327" t="n">
         <v>1005.9</v>
@@ -14570,7 +14570,7 @@
         <v>251.1</v>
       </c>
       <c r="G329" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H329" t="n">
         <v>1011.1</v>
@@ -14613,7 +14613,7 @@
         <v>209.5</v>
       </c>
       <c r="G330" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>1018.9</v>
@@ -14656,7 +14656,7 @@
         <v>248.5</v>
       </c>
       <c r="G331" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
         <v>1025.9</v>
@@ -14699,7 +14699,7 @@
         <v>26</v>
       </c>
       <c r="G332" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H332" t="n">
         <v>1029.4</v>
@@ -14742,7 +14742,7 @@
         <v>38.5</v>
       </c>
       <c r="G333" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
         <v>1023</v>
@@ -14785,7 +14785,7 @@
         <v>52.4</v>
       </c>
       <c r="G334" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H334" t="n">
         <v>1023.8</v>
@@ -14828,7 +14828,7 @@
         <v>65.2</v>
       </c>
       <c r="G335" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H335" t="n">
         <v>1027.4</v>
@@ -14914,7 +14914,7 @@
         <v>52.2</v>
       </c>
       <c r="G337" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H337" t="n">
         <v>1025.6</v>
@@ -14957,7 +14957,7 @@
         <v>49.9</v>
       </c>
       <c r="G338" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H338" t="n">
         <v>1025.1</v>
@@ -15086,7 +15086,7 @@
         <v>246</v>
       </c>
       <c r="G341" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H341" t="n">
         <v>1014.2</v>
@@ -15129,7 +15129,7 @@
         <v>232.8</v>
       </c>
       <c r="G342" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H342" t="n">
         <v>1011.4</v>
@@ -15172,7 +15172,7 @@
         <v>214.1</v>
       </c>
       <c r="G343" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H343" t="n">
         <v>1011.6</v>
@@ -15215,7 +15215,7 @@
         <v>49.2</v>
       </c>
       <c r="G344" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H344" t="n">
         <v>1007.6</v>
@@ -15258,7 +15258,7 @@
         <v>28.1</v>
       </c>
       <c r="G345" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H345" t="n">
         <v>1005</v>
@@ -15301,7 +15301,7 @@
         <v>292</v>
       </c>
       <c r="G346" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H346" t="n">
         <v>1003.4</v>
@@ -15344,7 +15344,7 @@
         <v>233.7</v>
       </c>
       <c r="G347" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H347" t="n">
         <v>1005.1</v>
@@ -15387,7 +15387,7 @@
         <v>241.5</v>
       </c>
       <c r="G348" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H348" t="n">
         <v>1012.7</v>
@@ -15430,7 +15430,7 @@
         <v>42.9</v>
       </c>
       <c r="G349" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H349" t="n">
         <v>1009.4</v>
@@ -15473,7 +15473,7 @@
         <v>155.6</v>
       </c>
       <c r="G350" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H350" t="n">
         <v>1009</v>
@@ -15516,7 +15516,7 @@
         <v>20.8</v>
       </c>
       <c r="G351" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H351" t="n">
         <v>1009.1</v>
@@ -15559,7 +15559,7 @@
         <v>255</v>
       </c>
       <c r="G352" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H352" t="n">
         <v>1021.8</v>
@@ -15602,7 +15602,7 @@
         <v>274.1</v>
       </c>
       <c r="G353" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H353" t="n">
         <v>1037</v>
@@ -15645,7 +15645,7 @@
         <v>46.8</v>
       </c>
       <c r="G354" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H354" t="n">
         <v>1034.7</v>
@@ -15731,7 +15731,7 @@
         <v>208.8</v>
       </c>
       <c r="G356" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H356" t="n">
         <v>1017.2</v>
@@ -15774,7 +15774,7 @@
         <v>203.8</v>
       </c>
       <c r="G357" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
         <v>1011.5</v>
@@ -15817,7 +15817,7 @@
         <v>222.7</v>
       </c>
       <c r="G358" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
         <v>1008.2</v>
@@ -15860,7 +15860,7 @@
         <v>231.6</v>
       </c>
       <c r="G359" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
         <v>1010.3</v>
@@ -15903,7 +15903,7 @@
         <v>263</v>
       </c>
       <c r="G360" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H360" t="n">
         <v>1021.2</v>
@@ -15946,7 +15946,7 @@
         <v>236.6</v>
       </c>
       <c r="G361" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
         <v>1016.4</v>
@@ -15989,7 +15989,7 @@
         <v>250.1</v>
       </c>
       <c r="G362" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H362" t="n">
         <v>1021.9</v>
@@ -16032,7 +16032,7 @@
         <v>221.4</v>
       </c>
       <c r="G363" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H363" t="n">
         <v>1022.8</v>
@@ -16118,7 +16118,7 @@
         <v>210.2</v>
       </c>
       <c r="G365" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H365" t="n">
         <v>1018.1</v>
